--- a/carriers_source_analyses/coal.carrier.xlsx
+++ b/carriers_source_analyses/coal.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -18,6 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
@@ -2292,14 +2293,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2313,7 +2314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8140700" y="28600400"/>
-          <a:ext cx="9220200" cy="8585200"/>
+          <a:ext cx="9410700" cy="8953500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2439,6 +2440,26 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3128,7 +3149,7 @@
       </c>
       <c r="E11" s="158">
         <f>'Research data'!G7</f>
-        <v>1.9390315152764889E-3</v>
+        <v>1.2733483037796075E-3</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="112"/>
@@ -3203,7 +3224,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -4766,7 +4787,7 @@
       </c>
       <c r="G7" s="157">
         <f>M7</f>
-        <v>1.9390315152764889E-3</v>
+        <v>1.2733483037796075E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4775,7 +4796,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="145">
         <f>Notes!F151</f>
-        <v>1.9390315152764889E-3</v>
+        <v>1.2733483037796075E-3</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="160" t="s">
@@ -6475,7 +6496,7 @@
   <dimension ref="A1:Y151"/>
   <sheetViews>
     <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8385,7 +8406,7 @@
     </row>
     <row r="147" spans="6:9" ht="17">
       <c r="F147" s="154">
-        <v>56.42</v>
+        <v>37</v>
       </c>
       <c r="G147" s="153" t="s">
         <v>94</v>
@@ -8397,7 +8418,7 @@
     <row r="148" spans="6:9" ht="17">
       <c r="F148" s="154">
         <f>dollar_per_euro</f>
-        <v>1.0980000000000001</v>
+        <v>1.0965</v>
       </c>
       <c r="G148" s="106" t="s">
         <v>99</v>
@@ -8409,7 +8430,7 @@
     <row r="149" spans="6:9">
       <c r="F149" s="155">
         <f>F147/F148</f>
-        <v>51.384335154826957</v>
+        <v>33.743730050159598</v>
       </c>
       <c r="G149" s="153" t="s">
         <v>102</v>
@@ -8427,7 +8448,7 @@
     <row r="151" spans="6:9">
       <c r="F151" s="156">
         <f>F149/F150</f>
-        <v>1.9390315152764889E-3</v>
+        <v>1.2733483037796075E-3</v>
       </c>
       <c r="G151" s="153" t="s">
         <v>55</v>
@@ -8544,13 +8565,13 @@
         <v>107</v>
       </c>
       <c r="E9" s="130">
-        <v>1.0980000000000001</v>
+        <v>1.0965</v>
       </c>
       <c r="F9" s="112" t="s">
         <v>108</v>
       </c>
       <c r="G9" s="161">
-        <v>42221</v>
+        <v>42412</v>
       </c>
       <c r="H9" s="113" t="s">
         <v>110</v>

--- a/carriers_source_analyses/coal.carrier.xlsx
+++ b/carriers_source_analyses/coal.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -344,9 +343,6 @@
   </si>
   <si>
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
-  </si>
-  <si>
-    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
   </si>
   <si>
     <t>Hard coal</t>
@@ -2094,6 +2090,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2102,14 +2102,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2148,6 +2148,67 @@
                   <a:cs typeface="Lucida Grande"/>
                 </a:rPr>
                 <a:t>Update carrier attributes on ETSource</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>3949700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande"/>
+                  <a:ea typeface="Lucida Grande"/>
+                  <a:cs typeface="Lucida Grande"/>
+                </a:rPr>
+                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2445,29 +2506,10 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
+      <definedName name="update_fce"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3155,7 +3197,7 @@
       <c r="G11" s="112"/>
       <c r="H11" s="31"/>
       <c r="I11" s="159" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="45"/>
     </row>
@@ -3224,19 +3266,42 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>3949700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId4" name="export_fce">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>165100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>3949700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3258,14 +3323,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3307,9 +3370,7 @@
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="171" t="s">
-        <v>92</v>
-      </c>
+      <c r="B4" s="171"/>
       <c r="C4" s="172"/>
       <c r="D4" s="172"/>
       <c r="E4" s="173"/>
@@ -4635,7 +4696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:O126"/>
@@ -4704,7 +4765,7 @@
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N3" s="64"/>
       <c r="O3" s="1" t="s">
@@ -4800,7 +4861,7 @@
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="160" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
@@ -6261,7 +6322,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:L14"/>
@@ -6463,7 +6524,7 @@
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="126"/>
       <c r="G13" s="61"/>
@@ -6472,7 +6533,7 @@
       <c r="J13" s="61"/>
       <c r="K13" s="63"/>
       <c r="L13" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -6493,6 +6554,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y151"/>
   <sheetViews>
     <sheetView topLeftCell="A139" workbookViewId="0">
@@ -6674,7 +6736,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="120"/>
       <c r="G8" s="121" t="s">
@@ -8343,7 +8405,7 @@
     <row r="139" spans="1:25" customFormat="1" ht="17">
       <c r="B139" s="107"/>
       <c r="C139" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
@@ -8396,12 +8458,12 @@
     </row>
     <row r="141" spans="1:25">
       <c r="F141" s="153" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:25">
       <c r="F142" s="153" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="6:9" ht="17">
@@ -8409,10 +8471,10 @@
         <v>37</v>
       </c>
       <c r="G147" s="153" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I147" s="153" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="6:9" ht="17">
@@ -8421,10 +8483,10 @@
         <v>1.0965</v>
       </c>
       <c r="G148" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="I148" s="153" t="s">
         <v>99</v>
-      </c>
-      <c r="I148" s="153" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="149" spans="6:9">
@@ -8433,7 +8495,7 @@
         <v>33.743730050159598</v>
       </c>
       <c r="G149" s="153" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150" spans="6:9">
@@ -8442,7 +8504,7 @@
         <v>26500</v>
       </c>
       <c r="G150" s="153" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="6:9">
@@ -8468,6 +8530,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8493,7 +8556,7 @@
     </row>
     <row r="2" spans="2:9" s="37" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="162" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -8533,7 +8596,7 @@
     <row r="7" spans="2:9" s="44" customFormat="1" ht="18">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="94" t="s">
         <v>5</v>
@@ -8545,7 +8608,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>0</v>
@@ -8559,22 +8622,22 @@
     <row r="9" spans="2:9" s="44" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="24"/>
       <c r="C9" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>106</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>107</v>
       </c>
       <c r="E9" s="130">
         <v>1.0965</v>
       </c>
       <c r="F9" s="112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="161">
         <v>42412</v>
       </c>
       <c r="H9" s="113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="45"/>
     </row>

--- a/carriers_source_analyses/coal.carrier.xlsx
+++ b/carriers_source_analyses/coal.carrier.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
   </bookViews>
@@ -35,8 +40,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -339,9 +347,6 @@
     <t>Carrier (global properties)</t>
   </si>
   <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
-  </si>
-  <si>
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
   </si>
   <si>
@@ -400,6 +405,11 @@
   </si>
   <si>
     <t>Uses exchange rate from `dollar_per_euro.xlsx`</t>
+  </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
   </si>
 </sst>
 </file>
@@ -416,7 +426,7 @@
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -613,11 +623,6 @@
       <sz val="16"/>
       <color rgb="FF474747"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1406,7 +1411,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1641,14 +1646,14 @@
     <xf numFmtId="169" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1683,13 +1688,13 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2083,145 +2088,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2388,7 +2263,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2501,11 +2376,12 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2514,6 +2390,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2846,33 +2723,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="28" customFormat="1">
+    <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>87</v>
@@ -2881,7 +2758,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -2890,7 +2767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -2899,17 +2776,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="78" t="s">
         <v>15</v>
@@ -2917,13 +2794,13 @@
       <c r="C9" s="79"/>
       <c r="D9" s="148"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
       <c r="D10" s="149"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="80" t="s">
         <v>16</v>
@@ -2933,7 +2810,7 @@
       </c>
       <c r="D11" s="149"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="80"/>
       <c r="C12" s="19" t="s">
@@ -2941,7 +2818,7 @@
       </c>
       <c r="D12" s="149"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="80"/>
       <c r="C13" s="83" t="s">
@@ -2949,7 +2826,7 @@
       </c>
       <c r="D13" s="149"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81" t="s">
@@ -2957,13 +2834,13 @@
       </c>
       <c r="D14" s="149"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
       <c r="D15" s="149"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="80" t="s">
         <v>21</v>
@@ -2973,7 +2850,7 @@
       </c>
       <c r="D16" s="149"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="80"/>
       <c r="C17" s="85" t="s">
@@ -2981,7 +2858,7 @@
       </c>
       <c r="D17" s="149"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="80"/>
       <c r="C18" s="86" t="s">
@@ -2989,7 +2866,7 @@
       </c>
       <c r="D18" s="149"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="80"/>
       <c r="C19" s="87" t="s">
@@ -2997,7 +2874,7 @@
       </c>
       <c r="D19" s="149"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="88"/>
       <c r="C20" s="89" t="s">
@@ -3005,7 +2882,7 @@
       </c>
       <c r="D20" s="149"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="88"/>
       <c r="C21" s="90" t="s">
@@ -3013,7 +2890,7 @@
       </c>
       <c r="D21" s="149"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="88"/>
       <c r="C22" s="91" t="s">
@@ -3021,14 +2898,14 @@
       </c>
       <c r="D22" s="149"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="88"/>
       <c r="C23" s="92" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="149"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="150"/>
       <c r="C24" s="151"/>
       <c r="D24" s="152"/>
@@ -3036,47 +2913,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="162" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -3084,7 +2958,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="165"/>
       <c r="C3" s="166"/>
       <c r="D3" s="166"/>
@@ -3092,7 +2966,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="168"/>
       <c r="C4" s="169"/>
       <c r="D4" s="169"/>
@@ -3100,10 +2974,10 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -3114,7 +2988,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" s="44" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
@@ -3135,7 +3009,7 @@
       </c>
       <c r="J7" s="97"/>
     </row>
-    <row r="8" spans="2:10" s="44" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
       <c r="C8" s="19"/>
       <c r="D8" s="32"/>
@@ -3146,7 +3020,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="2:10" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="147" t="s">
         <v>89</v>
@@ -3159,7 +3033,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="2:10" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
       <c r="C10" s="103" t="s">
         <v>38</v>
@@ -3181,7 +3055,7 @@
       </c>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:10" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
       <c r="C11" s="112" t="s">
         <v>39</v>
@@ -3197,11 +3071,11 @@
       <c r="G11" s="112"/>
       <c r="H11" s="31"/>
       <c r="I11" s="159" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="2:10" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="112" t="s">
         <v>88</v>
@@ -3221,7 +3095,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="2:10" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
       <c r="C13" s="36" t="s">
         <v>40</v>
@@ -3241,7 +3115,7 @@
       </c>
       <c r="J13" s="45"/>
     </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
@@ -3258,66 +3132,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId4" name="export_fce">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3330,30 +3144,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="162" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -3361,7 +3175,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="165"/>
       <c r="C3" s="166"/>
       <c r="D3" s="166"/>
@@ -3369,7 +3183,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="171"/>
       <c r="C4" s="172"/>
       <c r="D4" s="172"/>
@@ -3377,10 +3191,10 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -3391,7 +3205,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" s="44" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
@@ -3412,7 +3226,7 @@
       </c>
       <c r="J7" s="97"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="40"/>
       <c r="C8" s="76"/>
       <c r="D8" s="95"/>
@@ -3423,7 +3237,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="98"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="40"/>
       <c r="C9" s="19" t="s">
         <v>37</v>
@@ -3436,7 +3250,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="98"/>
     </row>
-    <row r="10" spans="2:10" ht="16" thickBot="1">
+    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="40"/>
       <c r="C10" s="138" t="s">
         <v>78</v>
@@ -3449,7 +3263,7 @@
       <c r="I10" s="112"/>
       <c r="J10" s="98"/>
     </row>
-    <row r="11" spans="2:10" ht="16" thickBot="1">
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="40"/>
       <c r="C11" s="115" t="s">
         <v>43</v>
@@ -3471,7 +3285,7 @@
       </c>
       <c r="J11" s="98"/>
     </row>
-    <row r="12" spans="2:10" ht="16" thickBot="1">
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40"/>
       <c r="C12" s="115" t="s">
         <v>44</v>
@@ -3493,7 +3307,7 @@
       </c>
       <c r="J12" s="98"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1">
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40"/>
       <c r="C13" s="115" t="s">
         <v>48</v>
@@ -3515,7 +3329,7 @@
       </c>
       <c r="J13" s="98"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
       <c r="C14" s="115" t="s">
         <v>47</v>
@@ -3537,7 +3351,7 @@
       </c>
       <c r="J14" s="98"/>
     </row>
-    <row r="15" spans="2:10" ht="16" thickBot="1">
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40"/>
       <c r="C15" s="115" t="s">
         <v>40</v>
@@ -3559,7 +3373,7 @@
       </c>
       <c r="J15" s="98"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="115" t="s">
         <v>46</v>
@@ -3581,7 +3395,7 @@
       </c>
       <c r="J16" s="98"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40"/>
       <c r="C17" s="140" t="s">
         <v>45</v>
@@ -3601,7 +3415,7 @@
       </c>
       <c r="J17" s="98"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
       <c r="C18" s="140"/>
       <c r="D18" s="23"/>
@@ -3612,7 +3426,7 @@
       <c r="I18" s="139"/>
       <c r="J18" s="98"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="138" t="s">
         <v>79</v>
@@ -3625,7 +3439,7 @@
       <c r="I19" s="112"/>
       <c r="J19" s="98"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="115" t="s">
         <v>43</v>
@@ -3647,7 +3461,7 @@
       </c>
       <c r="J20" s="98"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="115" t="s">
         <v>44</v>
@@ -3669,7 +3483,7 @@
       </c>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="115" t="s">
         <v>48</v>
@@ -3691,7 +3505,7 @@
       </c>
       <c r="J22" s="98"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="40"/>
       <c r="C23" s="115" t="s">
         <v>47</v>
@@ -3713,7 +3527,7 @@
       </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40"/>
       <c r="C24" s="115" t="s">
         <v>40</v>
@@ -3735,7 +3549,7 @@
       </c>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="40"/>
       <c r="C25" s="115" t="s">
         <v>46</v>
@@ -3757,7 +3571,7 @@
       </c>
       <c r="J25" s="98"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40"/>
       <c r="C26" s="140" t="s">
         <v>45</v>
@@ -3777,7 +3591,7 @@
       </c>
       <c r="J26" s="98"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="40"/>
       <c r="C27" s="140"/>
       <c r="D27" s="23"/>
@@ -3788,7 +3602,7 @@
       <c r="I27" s="139"/>
       <c r="J27" s="98"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
       <c r="C28" s="138" t="s">
         <v>80</v>
@@ -3801,7 +3615,7 @@
       <c r="I28" s="112"/>
       <c r="J28" s="98"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="40"/>
       <c r="C29" s="115" t="s">
         <v>43</v>
@@ -3823,7 +3637,7 @@
       </c>
       <c r="J29" s="98"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40"/>
       <c r="C30" s="115" t="s">
         <v>44</v>
@@ -3845,7 +3659,7 @@
       </c>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40"/>
       <c r="C31" s="115" t="s">
         <v>48</v>
@@ -3867,7 +3681,7 @@
       </c>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40"/>
       <c r="C32" s="115" t="s">
         <v>47</v>
@@ -3889,7 +3703,7 @@
       </c>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40"/>
       <c r="C33" s="115" t="s">
         <v>40</v>
@@ -3911,7 +3725,7 @@
       </c>
       <c r="J33" s="98"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="40"/>
       <c r="C34" s="115" t="s">
         <v>46</v>
@@ -3933,7 +3747,7 @@
       </c>
       <c r="J34" s="98"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="40"/>
       <c r="C35" s="140" t="s">
         <v>45</v>
@@ -3953,7 +3767,7 @@
       </c>
       <c r="J35" s="98"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="40"/>
       <c r="C36" s="140"/>
       <c r="D36" s="23"/>
@@ -3964,7 +3778,7 @@
       <c r="I36" s="139"/>
       <c r="J36" s="98"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="40"/>
       <c r="C37" s="138" t="s">
         <v>81</v>
@@ -3977,7 +3791,7 @@
       <c r="I37" s="112"/>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="40"/>
       <c r="C38" s="115" t="s">
         <v>43</v>
@@ -3999,7 +3813,7 @@
       </c>
       <c r="J38" s="98"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="40"/>
       <c r="C39" s="115" t="s">
         <v>44</v>
@@ -4021,7 +3835,7 @@
       </c>
       <c r="J39" s="98"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="40"/>
       <c r="C40" s="115" t="s">
         <v>48</v>
@@ -4043,7 +3857,7 @@
       </c>
       <c r="J40" s="98"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="40"/>
       <c r="C41" s="115" t="s">
         <v>47</v>
@@ -4065,7 +3879,7 @@
       </c>
       <c r="J41" s="98"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="40"/>
       <c r="C42" s="115" t="s">
         <v>40</v>
@@ -4087,7 +3901,7 @@
       </c>
       <c r="J42" s="98"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="40"/>
       <c r="C43" s="115" t="s">
         <v>46</v>
@@ -4109,7 +3923,7 @@
       </c>
       <c r="J43" s="98"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="40"/>
       <c r="C44" s="140" t="s">
         <v>45</v>
@@ -4129,7 +3943,7 @@
       </c>
       <c r="J44" s="98"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="40"/>
       <c r="C45" s="140"/>
       <c r="D45" s="23"/>
@@ -4140,7 +3954,7 @@
       <c r="I45" s="139"/>
       <c r="J45" s="98"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="40"/>
       <c r="C46" s="138" t="s">
         <v>82</v>
@@ -4153,7 +3967,7 @@
       <c r="I46" s="112"/>
       <c r="J46" s="98"/>
     </row>
-    <row r="47" spans="2:10" ht="16" thickBot="1">
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="40"/>
       <c r="C47" s="115" t="s">
         <v>43</v>
@@ -4175,7 +3989,7 @@
       </c>
       <c r="J47" s="98"/>
     </row>
-    <row r="48" spans="2:10" ht="16" thickBot="1">
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="40"/>
       <c r="C48" s="115" t="s">
         <v>44</v>
@@ -4197,7 +4011,7 @@
       </c>
       <c r="J48" s="98"/>
     </row>
-    <row r="49" spans="2:10" ht="16" thickBot="1">
+    <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="40"/>
       <c r="C49" s="115" t="s">
         <v>48</v>
@@ -4219,7 +4033,7 @@
       </c>
       <c r="J49" s="98"/>
     </row>
-    <row r="50" spans="2:10" ht="16" thickBot="1">
+    <row r="50" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="40"/>
       <c r="C50" s="115" t="s">
         <v>47</v>
@@ -4241,7 +4055,7 @@
       </c>
       <c r="J50" s="98"/>
     </row>
-    <row r="51" spans="2:10" ht="16" thickBot="1">
+    <row r="51" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="40"/>
       <c r="C51" s="115" t="s">
         <v>40</v>
@@ -4263,7 +4077,7 @@
       </c>
       <c r="J51" s="98"/>
     </row>
-    <row r="52" spans="2:10" ht="16" thickBot="1">
+    <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="40"/>
       <c r="C52" s="115" t="s">
         <v>46</v>
@@ -4285,7 +4099,7 @@
       </c>
       <c r="J52" s="98"/>
     </row>
-    <row r="53" spans="2:10" ht="16" thickBot="1">
+    <row r="53" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="40"/>
       <c r="C53" s="140" t="s">
         <v>45</v>
@@ -4305,7 +4119,7 @@
       </c>
       <c r="J53" s="98"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="40"/>
       <c r="C54" s="140"/>
       <c r="D54" s="23"/>
@@ -4316,7 +4130,7 @@
       <c r="I54" s="139"/>
       <c r="J54" s="98"/>
     </row>
-    <row r="55" spans="2:10" ht="16" thickBot="1">
+    <row r="55" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="40"/>
       <c r="C55" s="138" t="s">
         <v>83</v>
@@ -4329,7 +4143,7 @@
       <c r="I55" s="112"/>
       <c r="J55" s="98"/>
     </row>
-    <row r="56" spans="2:10" ht="16" thickBot="1">
+    <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="40"/>
       <c r="C56" s="115" t="s">
         <v>43</v>
@@ -4351,7 +4165,7 @@
       </c>
       <c r="J56" s="98"/>
     </row>
-    <row r="57" spans="2:10" ht="16" thickBot="1">
+    <row r="57" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="40"/>
       <c r="C57" s="115" t="s">
         <v>44</v>
@@ -4373,7 +4187,7 @@
       </c>
       <c r="J57" s="98"/>
     </row>
-    <row r="58" spans="2:10" ht="16" thickBot="1">
+    <row r="58" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="40"/>
       <c r="C58" s="115" t="s">
         <v>48</v>
@@ -4395,7 +4209,7 @@
       </c>
       <c r="J58" s="98"/>
     </row>
-    <row r="59" spans="2:10" ht="16" thickBot="1">
+    <row r="59" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="40"/>
       <c r="C59" s="115" t="s">
         <v>47</v>
@@ -4417,7 +4231,7 @@
       </c>
       <c r="J59" s="98"/>
     </row>
-    <row r="60" spans="2:10" ht="16" thickBot="1">
+    <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="40"/>
       <c r="C60" s="115" t="s">
         <v>40</v>
@@ -4439,7 +4253,7 @@
       </c>
       <c r="J60" s="98"/>
     </row>
-    <row r="61" spans="2:10" ht="16" thickBot="1">
+    <row r="61" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="40"/>
       <c r="C61" s="115" t="s">
         <v>46</v>
@@ -4461,7 +4275,7 @@
       </c>
       <c r="J61" s="98"/>
     </row>
-    <row r="62" spans="2:10" ht="16" thickBot="1">
+    <row r="62" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="40"/>
       <c r="C62" s="140" t="s">
         <v>45</v>
@@ -4481,7 +4295,7 @@
       </c>
       <c r="J62" s="98"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="40"/>
       <c r="C63" s="140"/>
       <c r="D63" s="23"/>
@@ -4492,7 +4306,7 @@
       <c r="I63" s="139"/>
       <c r="J63" s="98"/>
     </row>
-    <row r="64" spans="2:10" ht="16" thickBot="1">
+    <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="40"/>
       <c r="C64" s="138" t="s">
         <v>84</v>
@@ -4505,7 +4319,7 @@
       <c r="I64" s="112"/>
       <c r="J64" s="98"/>
     </row>
-    <row r="65" spans="2:10" ht="16" thickBot="1">
+    <row r="65" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="40"/>
       <c r="C65" s="115" t="s">
         <v>43</v>
@@ -4527,7 +4341,7 @@
       </c>
       <c r="J65" s="98"/>
     </row>
-    <row r="66" spans="2:10" ht="16" thickBot="1">
+    <row r="66" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="40"/>
       <c r="C66" s="115" t="s">
         <v>44</v>
@@ -4549,7 +4363,7 @@
       </c>
       <c r="J66" s="98"/>
     </row>
-    <row r="67" spans="2:10" ht="16" thickBot="1">
+    <row r="67" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="40"/>
       <c r="C67" s="115" t="s">
         <v>48</v>
@@ -4571,7 +4385,7 @@
       </c>
       <c r="J67" s="98"/>
     </row>
-    <row r="68" spans="2:10" ht="16" thickBot="1">
+    <row r="68" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="40"/>
       <c r="C68" s="115" t="s">
         <v>47</v>
@@ -4593,7 +4407,7 @@
       </c>
       <c r="J68" s="98"/>
     </row>
-    <row r="69" spans="2:10" ht="16" thickBot="1">
+    <row r="69" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40"/>
       <c r="C69" s="115" t="s">
         <v>40</v>
@@ -4615,7 +4429,7 @@
       </c>
       <c r="J69" s="98"/>
     </row>
-    <row r="70" spans="2:10" ht="16" thickBot="1">
+    <row r="70" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="40"/>
       <c r="C70" s="115" t="s">
         <v>46</v>
@@ -4637,7 +4451,7 @@
       </c>
       <c r="J70" s="98"/>
     </row>
-    <row r="71" spans="2:10" ht="16" thickBot="1">
+    <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="40"/>
       <c r="C71" s="140" t="s">
         <v>45</v>
@@ -4657,7 +4471,7 @@
       </c>
       <c r="J71" s="98"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="40"/>
       <c r="C72" s="140"/>
       <c r="D72" s="23"/>
@@ -4668,7 +4482,7 @@
       <c r="I72" s="139"/>
       <c r="J72" s="98"/>
     </row>
-    <row r="73" spans="2:10" ht="16" thickBot="1">
+    <row r="73" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="41"/>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
@@ -4686,11 +4500,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4705,28 +4514,27 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="66" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="66" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="66" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="66" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="66" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="66" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="66" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="67" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="66" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="67" customWidth="1"/>
     <col min="10" max="10" width="3" style="67" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="67" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="67" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="67" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="67" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="67" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="67" customWidth="1"/>
     <col min="15" max="15" width="60" style="66" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="66"/>
+    <col min="16" max="16384" width="10.7109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -4742,7 +4550,7 @@
       <c r="N2" s="70"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="2:15" s="25" customFormat="1">
+    <row r="3" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="C3" s="102" t="s">
         <v>30</v>
@@ -4765,14 +4573,14 @@
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N3" s="64"/>
       <c r="O3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -4788,7 +4596,7 @@
       <c r="N4" s="101"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="72"/>
       <c r="C5" s="19" t="s">
         <v>56</v>
@@ -4806,7 +4614,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
       <c r="C6" s="116" t="s">
         <v>38</v>
@@ -4832,7 +4640,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="117" t="s">
         <v>39</v>
@@ -4861,10 +4669,10 @@
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="160" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="117" t="s">
         <v>88</v>
@@ -4894,7 +4702,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="118" t="s">
         <v>40</v>
@@ -4924,7 +4732,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="72"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -4940,7 +4748,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15" s="37" customFormat="1">
+    <row r="11" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="40"/>
       <c r="C11" s="19" t="s">
         <v>37</v>
@@ -4954,7 +4762,7 @@
       <c r="J11" s="18"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40"/>
       <c r="C12" s="134" t="s">
         <v>78</v>
@@ -4968,7 +4776,7 @@
       <c r="J12" s="18"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40"/>
       <c r="C13" s="119" t="s">
         <v>43</v>
@@ -4989,7 +4797,7 @@
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="14" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
       <c r="C14" s="119" t="s">
         <v>44</v>
@@ -5010,7 +4818,7 @@
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="15" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40"/>
       <c r="C15" s="119" t="s">
         <v>48</v>
@@ -5031,7 +4839,7 @@
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="16" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="119" t="s">
         <v>47</v>
@@ -5052,7 +4860,7 @@
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="17" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40"/>
       <c r="C17" s="119" t="s">
         <v>40</v>
@@ -5073,7 +4881,7 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="18" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40"/>
       <c r="C18" s="119" t="s">
         <v>46</v>
@@ -5094,7 +4902,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="19" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="141" t="s">
         <v>45</v>
@@ -5115,7 +4923,7 @@
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" s="37" customFormat="1">
+    <row r="20" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="40"/>
       <c r="C20" s="141"/>
       <c r="F20" s="23"/>
@@ -5126,7 +4934,7 @@
       <c r="K20" s="139"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="21" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="134" t="s">
         <v>79</v>
@@ -5139,7 +4947,7 @@
       <c r="K21" s="112"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="22" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="119" t="s">
         <v>43</v>
@@ -5160,7 +4968,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="23" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="40"/>
       <c r="C23" s="119" t="s">
         <v>44</v>
@@ -5181,7 +4989,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="24" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40"/>
       <c r="C24" s="119" t="s">
         <v>48</v>
@@ -5202,7 +5010,7 @@
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="25" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="40"/>
       <c r="C25" s="119" t="s">
         <v>47</v>
@@ -5223,7 +5031,7 @@
       </c>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="26" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40"/>
       <c r="C26" s="119" t="s">
         <v>40</v>
@@ -5244,7 +5052,7 @@
       </c>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="27" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="40"/>
       <c r="C27" s="119" t="s">
         <v>46</v>
@@ -5265,7 +5073,7 @@
       </c>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="28" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
       <c r="C28" s="141" t="s">
         <v>45</v>
@@ -5286,7 +5094,7 @@
       </c>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:15" s="37" customFormat="1">
+    <row r="29" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="40"/>
       <c r="C29" s="141"/>
       <c r="F29" s="23"/>
@@ -5297,7 +5105,7 @@
       <c r="K29" s="139"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="30" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40"/>
       <c r="C30" s="134" t="s">
         <v>80</v>
@@ -5310,7 +5118,7 @@
       <c r="K30" s="112"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="31" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40"/>
       <c r="C31" s="119" t="s">
         <v>43</v>
@@ -5331,7 +5139,7 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="32" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40"/>
       <c r="C32" s="119" t="s">
         <v>44</v>
@@ -5352,7 +5160,7 @@
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="33" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40"/>
       <c r="C33" s="119" t="s">
         <v>48</v>
@@ -5373,7 +5181,7 @@
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="34" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="40"/>
       <c r="C34" s="119" t="s">
         <v>47</v>
@@ -5394,7 +5202,7 @@
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="35" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="40"/>
       <c r="C35" s="119" t="s">
         <v>40</v>
@@ -5415,7 +5223,7 @@
       </c>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="36" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="40"/>
       <c r="C36" s="119" t="s">
         <v>46</v>
@@ -5436,7 +5244,7 @@
       </c>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="37" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="40"/>
       <c r="C37" s="141" t="s">
         <v>45</v>
@@ -5457,7 +5265,7 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="2:15" s="37" customFormat="1">
+    <row r="38" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="40"/>
       <c r="C38" s="141"/>
       <c r="F38" s="23"/>
@@ -5468,7 +5276,7 @@
       <c r="K38" s="139"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="39" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="40"/>
       <c r="C39" s="134" t="s">
         <v>81</v>
@@ -5481,7 +5289,7 @@
       <c r="K39" s="112"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="40" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="40"/>
       <c r="C40" s="119" t="s">
         <v>43</v>
@@ -5502,7 +5310,7 @@
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="41" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="40"/>
       <c r="C41" s="119" t="s">
         <v>44</v>
@@ -5523,7 +5331,7 @@
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="42" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="40"/>
       <c r="C42" s="119" t="s">
         <v>48</v>
@@ -5544,7 +5352,7 @@
       </c>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="43" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="40"/>
       <c r="C43" s="119" t="s">
         <v>47</v>
@@ -5565,7 +5373,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="44" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="40"/>
       <c r="C44" s="119" t="s">
         <v>40</v>
@@ -5586,7 +5394,7 @@
       </c>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="45" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="40"/>
       <c r="C45" s="119" t="s">
         <v>46</v>
@@ -5607,7 +5415,7 @@
       </c>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="46" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="40"/>
       <c r="C46" s="141" t="s">
         <v>45</v>
@@ -5628,7 +5436,7 @@
       </c>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="2:15" s="37" customFormat="1">
+    <row r="47" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="40"/>
       <c r="C47" s="141"/>
       <c r="F47" s="23"/>
@@ -5639,7 +5447,7 @@
       <c r="K47" s="139"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="48" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="40"/>
       <c r="C48" s="134" t="s">
         <v>82</v>
@@ -5652,7 +5460,7 @@
       <c r="K48" s="112"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="49" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="40"/>
       <c r="C49" s="119" t="s">
         <v>43</v>
@@ -5673,7 +5481,7 @@
       </c>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="50" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="40"/>
       <c r="C50" s="119" t="s">
         <v>44</v>
@@ -5694,7 +5502,7 @@
       </c>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="51" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="40"/>
       <c r="C51" s="119" t="s">
         <v>48</v>
@@ -5715,7 +5523,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="52" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="40"/>
       <c r="C52" s="119" t="s">
         <v>47</v>
@@ -5736,7 +5544,7 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="53" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="40"/>
       <c r="C53" s="119" t="s">
         <v>40</v>
@@ -5757,7 +5565,7 @@
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="54" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="40"/>
       <c r="C54" s="119" t="s">
         <v>46</v>
@@ -5778,7 +5586,7 @@
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="55" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="40"/>
       <c r="C55" s="141" t="s">
         <v>45</v>
@@ -5799,7 +5607,7 @@
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="2:15" s="37" customFormat="1">
+    <row r="56" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="40"/>
       <c r="C56" s="141"/>
       <c r="F56" s="23"/>
@@ -5810,7 +5618,7 @@
       <c r="K56" s="139"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="57" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="40"/>
       <c r="C57" s="134" t="s">
         <v>83</v>
@@ -5823,7 +5631,7 @@
       <c r="K57" s="112"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="58" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="40"/>
       <c r="C58" s="119" t="s">
         <v>43</v>
@@ -5844,7 +5652,7 @@
       </c>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="59" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="40"/>
       <c r="C59" s="119" t="s">
         <v>44</v>
@@ -5865,7 +5673,7 @@
       </c>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="60" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="40"/>
       <c r="C60" s="119" t="s">
         <v>48</v>
@@ -5886,7 +5694,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="61" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="40"/>
       <c r="C61" s="119" t="s">
         <v>47</v>
@@ -5907,7 +5715,7 @@
       </c>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="62" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="40"/>
       <c r="C62" s="119" t="s">
         <v>40</v>
@@ -5928,7 +5736,7 @@
       </c>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="63" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="40"/>
       <c r="C63" s="119" t="s">
         <v>46</v>
@@ -5949,7 +5757,7 @@
       </c>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="64" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="40"/>
       <c r="C64" s="141" t="s">
         <v>45</v>
@@ -5970,7 +5778,7 @@
       </c>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="2:15" s="37" customFormat="1">
+    <row r="65" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="40"/>
       <c r="C65" s="141"/>
       <c r="F65" s="23"/>
@@ -5981,7 +5789,7 @@
       <c r="K65" s="139"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="66" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="40"/>
       <c r="C66" s="134" t="s">
         <v>84</v>
@@ -5994,7 +5802,7 @@
       <c r="K66" s="112"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="67" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="40"/>
       <c r="C67" s="119" t="s">
         <v>43</v>
@@ -6015,7 +5823,7 @@
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="68" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="40"/>
       <c r="C68" s="119" t="s">
         <v>44</v>
@@ -6036,7 +5844,7 @@
       </c>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="69" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="40"/>
       <c r="C69" s="119" t="s">
         <v>48</v>
@@ -6057,7 +5865,7 @@
       </c>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="70" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="40"/>
       <c r="C70" s="119" t="s">
         <v>47</v>
@@ -6078,7 +5886,7 @@
       </c>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="71" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="40"/>
       <c r="C71" s="119" t="s">
         <v>40</v>
@@ -6099,7 +5907,7 @@
       </c>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="72" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="40"/>
       <c r="C72" s="119" t="s">
         <v>46</v>
@@ -6120,7 +5928,7 @@
       </c>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="2:15" s="37" customFormat="1" ht="16" thickBot="1">
+    <row r="73" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="40"/>
       <c r="C73" s="141" t="s">
         <v>45</v>
@@ -6141,7 +5949,7 @@
       </c>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="2:15" s="37" customFormat="1">
+    <row r="74" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="40"/>
       <c r="C74" s="140"/>
       <c r="D74" s="23"/>
@@ -6153,170 +5961,165 @@
       <c r="J74" s="18"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H80" s="17"/>
     </row>
-    <row r="81" spans="8:8">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="8:8">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="17"/>
     </row>
-    <row r="83" spans="8:8">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="8:8">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="8:8">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="17"/>
     </row>
-    <row r="86" spans="8:8">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="8:8">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="8:8">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="8:8">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="17"/>
     </row>
-    <row r="90" spans="8:8">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="17"/>
     </row>
-    <row r="91" spans="8:8">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="8:8">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="17"/>
     </row>
-    <row r="93" spans="8:8">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="17"/>
     </row>
-    <row r="94" spans="8:8">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="17"/>
     </row>
-    <row r="95" spans="8:8">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="17"/>
     </row>
-    <row r="96" spans="8:8">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="17"/>
     </row>
-    <row r="97" spans="8:8">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="17"/>
     </row>
-    <row r="98" spans="8:8">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="8:8">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="17"/>
     </row>
-    <row r="100" spans="8:8">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="8:8">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="17"/>
     </row>
-    <row r="102" spans="8:8">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="17"/>
     </row>
-    <row r="103" spans="8:8">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="17"/>
     </row>
-    <row r="104" spans="8:8">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="17"/>
     </row>
-    <row r="105" spans="8:8">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="17"/>
     </row>
-    <row r="106" spans="8:8">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="17"/>
     </row>
-    <row r="107" spans="8:8">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="17"/>
     </row>
-    <row r="108" spans="8:8">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="17"/>
     </row>
-    <row r="109" spans="8:8">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H109" s="17"/>
     </row>
-    <row r="110" spans="8:8">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H110" s="17"/>
     </row>
-    <row r="111" spans="8:8">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H111" s="17"/>
     </row>
-    <row r="112" spans="8:8">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H112" s="17"/>
     </row>
-    <row r="113" spans="8:8">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H113" s="17"/>
     </row>
-    <row r="114" spans="8:8">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H114" s="17"/>
     </row>
-    <row r="115" spans="8:8">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H115" s="17"/>
     </row>
-    <row r="116" spans="8:8">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H116" s="17"/>
     </row>
-    <row r="117" spans="8:8">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H117" s="17"/>
     </row>
-    <row r="118" spans="8:8">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H118" s="17"/>
     </row>
-    <row r="119" spans="8:8">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H119" s="17"/>
     </row>
-    <row r="120" spans="8:8">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H120" s="17"/>
     </row>
-    <row r="121" spans="8:8">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H121" s="17"/>
     </row>
-    <row r="122" spans="8:8">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H122" s="17"/>
     </row>
-    <row r="123" spans="8:8">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H123" s="17"/>
     </row>
-    <row r="124" spans="8:8">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H124" s="17"/>
     </row>
-    <row r="125" spans="8:8">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H125" s="17"/>
     </row>
-    <row r="126" spans="8:8">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H126" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6331,23 +6134,23 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
     <col min="6" max="6" width="5" style="48" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="48" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="48"/>
+    <col min="7" max="7" width="10.28515625" style="48" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -6360,7 +6163,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="53"/>
       <c r="C3" s="54" t="s">
         <v>11</v>
@@ -6375,7 +6178,7 @@
       <c r="K3" s="55"/>
       <c r="L3" s="56"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -6388,7 +6191,7 @@
       <c r="K4" s="57"/>
       <c r="L4" s="56"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
         <v>13</v>
@@ -6417,7 +6220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -6430,7 +6233,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="53"/>
       <c r="C7" s="135" t="s">
         <v>88</v>
@@ -6457,7 +6260,7 @@
       </c>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="53"/>
       <c r="C8" s="136" t="s">
         <v>77</v>
@@ -6465,7 +6268,7 @@
       <c r="E8" s="127"/>
       <c r="F8" s="127"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="53"/>
       <c r="C9" s="137" t="s">
         <v>40</v>
@@ -6473,13 +6276,13 @@
       <c r="E9" s="127"/>
       <c r="F9" s="127"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="53"/>
       <c r="C10" s="111"/>
       <c r="E10" s="127"/>
       <c r="F10" s="127"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="53"/>
       <c r="C11" s="61" t="s">
         <v>69</v>
@@ -6504,7 +6307,7 @@
       </c>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="53"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -6517,14 +6320,14 @@
       <c r="K12" s="63"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="53"/>
       <c r="C13" s="61" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="126"/>
       <c r="G13" s="61"/>
@@ -6533,10 +6336,10 @@
       <c r="J13" s="61"/>
       <c r="K13" s="63"/>
       <c r="L13" s="62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="53"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
@@ -6544,11 +6347,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6561,19 +6359,19 @@
       <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="106" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="106" customWidth="1"/>
     <col min="2" max="2" width="5" style="106" customWidth="1"/>
     <col min="3" max="5" width="7" style="106"/>
-    <col min="6" max="6" width="10.875" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="106" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="106"/>
-    <col min="8" max="8" width="9.625" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="106" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="25" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="109"/>
       <c r="C2" s="110" t="s">
         <v>25</v>
@@ -6601,7 +6399,7 @@
       <c r="T2" s="110"/>
       <c r="U2" s="110"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="107"/>
       <c r="C3" s="108"/>
       <c r="D3" s="108"/>
@@ -6623,7 +6421,7 @@
       <c r="T3" s="108"/>
       <c r="U3" s="108"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107"/>
       <c r="C4" s="120" t="s">
         <v>58</v>
@@ -6651,7 +6449,7 @@
       <c r="X4" s="120"/>
       <c r="Y4" s="120"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107"/>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
@@ -6677,7 +6475,7 @@
       <c r="X5" s="120"/>
       <c r="Y5" s="120"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107"/>
       <c r="C6" s="120"/>
       <c r="D6" s="120"/>
@@ -6703,7 +6501,7 @@
       <c r="X6" s="120"/>
       <c r="Y6" s="120"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107"/>
       <c r="C7" s="120"/>
       <c r="D7" s="120"/>
@@ -6729,14 +6527,14 @@
       <c r="X7" s="120"/>
       <c r="Y7" s="120"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="107"/>
       <c r="C8" s="120"/>
       <c r="D8" s="120">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="120"/>
       <c r="G8" s="121" t="s">
@@ -6763,7 +6561,7 @@
       <c r="X8" s="120"/>
       <c r="Y8" s="120"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="107"/>
       <c r="C9" s="120"/>
       <c r="D9" s="120"/>
@@ -6794,7 +6592,7 @@
       <c r="X9" s="120"/>
       <c r="Y9" s="120"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="107"/>
       <c r="C10" s="120"/>
       <c r="D10" s="120"/>
@@ -6823,7 +6621,7 @@
       <c r="X10" s="120"/>
       <c r="Y10" s="120"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="107"/>
       <c r="C11" s="120"/>
       <c r="D11" s="120"/>
@@ -6852,7 +6650,7 @@
       <c r="X11" s="120"/>
       <c r="Y11" s="120"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="107"/>
       <c r="C12" s="120"/>
       <c r="D12" s="120"/>
@@ -6884,7 +6682,7 @@
       <c r="X12" s="120"/>
       <c r="Y12" s="120"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="107"/>
       <c r="C13" s="120"/>
       <c r="D13" s="120"/>
@@ -6910,7 +6708,7 @@
       <c r="X13" s="120"/>
       <c r="Y13" s="120"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="107"/>
       <c r="C14" s="120"/>
       <c r="D14" s="120"/>
@@ -6936,7 +6734,7 @@
       <c r="X14" s="120"/>
       <c r="Y14" s="120"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="107"/>
       <c r="C15" s="120"/>
       <c r="D15" s="120"/>
@@ -6962,7 +6760,7 @@
       <c r="X15" s="120"/>
       <c r="Y15" s="120"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="107"/>
       <c r="C16" s="120"/>
       <c r="D16" s="120"/>
@@ -6988,7 +6786,7 @@
       <c r="X16" s="120"/>
       <c r="Y16" s="120"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="107"/>
       <c r="C17" s="120"/>
       <c r="D17" s="120"/>
@@ -7014,7 +6812,7 @@
       <c r="X17" s="120"/>
       <c r="Y17" s="120"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="107"/>
       <c r="C18" s="120"/>
       <c r="D18" s="120"/>
@@ -7040,7 +6838,7 @@
       <c r="X18" s="120"/>
       <c r="Y18" s="120"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="107"/>
       <c r="C19" s="120"/>
       <c r="D19" s="120"/>
@@ -7066,7 +6864,7 @@
       <c r="X19" s="120"/>
       <c r="Y19" s="120"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="107"/>
       <c r="C20" s="120"/>
       <c r="D20" s="120"/>
@@ -7092,7 +6890,7 @@
       <c r="X20" s="120"/>
       <c r="Y20" s="120"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="107"/>
       <c r="C21" s="120"/>
       <c r="D21" s="120"/>
@@ -7118,7 +6916,7 @@
       <c r="X21" s="120"/>
       <c r="Y21" s="120"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="107"/>
       <c r="C22" s="120"/>
       <c r="D22" s="120"/>
@@ -7144,7 +6942,7 @@
       <c r="X22" s="120"/>
       <c r="Y22" s="120"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="107"/>
       <c r="C23" s="120"/>
       <c r="D23" s="120"/>
@@ -7170,7 +6968,7 @@
       <c r="X23" s="120"/>
       <c r="Y23" s="120"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="107"/>
       <c r="C24" s="120"/>
       <c r="D24" s="120"/>
@@ -7196,7 +6994,7 @@
       <c r="X24" s="120"/>
       <c r="Y24" s="120"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="107"/>
       <c r="C25" s="120"/>
       <c r="D25" s="120"/>
@@ -7222,7 +7020,7 @@
       <c r="X25" s="120"/>
       <c r="Y25" s="120"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="107"/>
       <c r="C26" s="120"/>
       <c r="D26" s="120"/>
@@ -7248,7 +7046,7 @@
       <c r="X26" s="120"/>
       <c r="Y26" s="120"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="107"/>
       <c r="C27" s="120"/>
       <c r="D27" s="120"/>
@@ -7274,7 +7072,7 @@
       <c r="X27" s="120"/>
       <c r="Y27" s="120"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="107"/>
       <c r="C28" s="120"/>
       <c r="D28" s="120"/>
@@ -7300,106 +7098,106 @@
       <c r="X28" s="120"/>
       <c r="Y28" s="120"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="107"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="107"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" ht="16">
+    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" ht="16">
+    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" ht="16">
+    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="107"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" ht="16">
+    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="107"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" ht="16">
+    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="107"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" ht="16">
+    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="107"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" ht="16">
+    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="107"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" ht="16">
+    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="107"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" ht="16">
+    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="107"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" ht="16">
+    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="107"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" ht="16">
+    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="107"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" ht="16">
+    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="107"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" ht="16">
+    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="107"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" ht="16">
+    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="107"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" ht="16">
+    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="107"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" ht="16">
+    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="107"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" ht="16">
+    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="107"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" ht="16">
+    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="107"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" ht="16">
+    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="107"/>
     </row>
-    <row r="52" spans="1:25" customFormat="1" ht="16">
+    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="107"/>
     </row>
-    <row r="53" spans="1:25" customFormat="1" ht="16">
+    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="107"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" ht="16">
+    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="107"/>
     </row>
-    <row r="55" spans="1:25" customFormat="1" ht="16">
+    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="107"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" ht="16">
+    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="107"/>
     </row>
-    <row r="57" spans="1:25" customFormat="1" ht="16">
+    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="107"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" ht="16">
+    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" ht="16">
+    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" ht="16">
+    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107"/>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="107"/>
     </row>
-    <row r="62" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="62" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="109"/>
       <c r="C62" s="110" t="s">
@@ -7428,7 +7226,7 @@
       <c r="T62" s="110"/>
       <c r="U62" s="110"/>
     </row>
-    <row r="63" spans="1:25" customFormat="1" ht="16">
+    <row r="63" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="107"/>
       <c r="C63" s="123"/>
       <c r="D63" s="120"/>
@@ -7454,7 +7252,7 @@
       <c r="X63" s="120"/>
       <c r="Y63" s="120"/>
     </row>
-    <row r="64" spans="1:25" customFormat="1" ht="17">
+    <row r="64" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B64" s="107"/>
       <c r="C64" s="128" t="s">
         <v>68</v>
@@ -7482,7 +7280,7 @@
       <c r="X64" s="120"/>
       <c r="Y64" s="120"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" ht="16">
+    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="107"/>
       <c r="C65" s="120"/>
       <c r="D65" s="120"/>
@@ -7508,7 +7306,7 @@
       <c r="X65" s="120"/>
       <c r="Y65" s="120"/>
     </row>
-    <row r="66" spans="2:25" customFormat="1" ht="16">
+    <row r="66" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="107"/>
       <c r="C66" s="120"/>
       <c r="D66" s="120"/>
@@ -7534,17 +7332,17 @@
       <c r="X66" s="120"/>
       <c r="Y66" s="120"/>
     </row>
-    <row r="68" spans="2:25">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D68" s="106">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:25">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E72" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="2:25">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E73" s="134" t="s">
         <v>78</v>
       </c>
@@ -7552,7 +7350,7 @@
       <c r="G73" s="112"/>
       <c r="H73" s="112"/>
     </row>
-    <row r="74" spans="2:25">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E74" s="119" t="s">
         <v>43</v>
       </c>
@@ -7569,7 +7367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="2:25">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E75" s="119" t="s">
         <v>44</v>
       </c>
@@ -7584,7 +7382,7 @@
       <c r="J75" s="120"/>
       <c r="K75" s="120"/>
     </row>
-    <row r="76" spans="2:25">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E76" s="119" t="s">
         <v>48</v>
       </c>
@@ -7599,7 +7397,7 @@
       <c r="J76" s="120"/>
       <c r="K76" s="120"/>
     </row>
-    <row r="77" spans="2:25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D77" s="120"/>
       <c r="E77" s="119" t="s">
         <v>47</v>
@@ -7615,7 +7413,7 @@
       <c r="J77" s="120"/>
       <c r="K77" s="120"/>
     </row>
-    <row r="78" spans="2:25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D78" s="120"/>
       <c r="E78" s="119" t="s">
         <v>40</v>
@@ -7631,7 +7429,7 @@
       <c r="J78" s="120"/>
       <c r="K78" s="120"/>
     </row>
-    <row r="79" spans="2:25">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D79" s="120"/>
       <c r="E79" s="119" t="s">
         <v>46</v>
@@ -7649,7 +7447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D80" s="120"/>
       <c r="E80" s="141" t="s">
         <v>45</v>
@@ -7664,7 +7462,7 @@
       </c>
       <c r="J80" s="120"/>
     </row>
-    <row r="81" spans="4:11">
+    <row r="81" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D81" s="120"/>
       <c r="E81" s="141"/>
       <c r="F81" s="37"/>
@@ -7673,7 +7471,7 @@
       <c r="I81" s="120"/>
       <c r="J81" s="120"/>
     </row>
-    <row r="82" spans="4:11">
+    <row r="82" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D82" s="120"/>
       <c r="E82" s="134" t="s">
         <v>79</v>
@@ -7686,7 +7484,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="4:11">
+    <row r="83" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E83" s="119" t="s">
         <v>43</v>
       </c>
@@ -7701,7 +7499,7 @@
       <c r="J83" s="120"/>
       <c r="K83" s="120"/>
     </row>
-    <row r="84" spans="4:11">
+    <row r="84" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E84" s="119" t="s">
         <v>44</v>
       </c>
@@ -7716,7 +7514,7 @@
       <c r="J84" s="120"/>
       <c r="K84" s="120"/>
     </row>
-    <row r="85" spans="4:11">
+    <row r="85" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E85" s="119" t="s">
         <v>48</v>
       </c>
@@ -7731,7 +7529,7 @@
       <c r="J85" s="120"/>
       <c r="K85" s="120"/>
     </row>
-    <row r="86" spans="4:11">
+    <row r="86" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E86" s="119" t="s">
         <v>47</v>
       </c>
@@ -7746,7 +7544,7 @@
       <c r="J86" s="120"/>
       <c r="K86" s="120"/>
     </row>
-    <row r="87" spans="4:11">
+    <row r="87" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E87" s="119" t="s">
         <v>40</v>
       </c>
@@ -7763,7 +7561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="4:11">
+    <row r="88" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E88" s="119" t="s">
         <v>46</v>
       </c>
@@ -7776,7 +7574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="4:11">
+    <row r="89" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E89" s="141" t="s">
         <v>45</v>
       </c>
@@ -7789,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:11">
+    <row r="90" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E90" s="141"/>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7798,7 +7596,7 @@
       <c r="J90" s="129"/>
       <c r="K90" s="129"/>
     </row>
-    <row r="91" spans="4:11">
+    <row r="91" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E91" s="134" t="s">
         <v>80</v>
       </c>
@@ -7808,7 +7606,7 @@
       <c r="J91" s="120"/>
       <c r="K91" s="120"/>
     </row>
-    <row r="92" spans="4:11">
+    <row r="92" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E92" s="119" t="s">
         <v>43</v>
       </c>
@@ -7823,7 +7621,7 @@
       <c r="J92" s="120"/>
       <c r="K92" s="120"/>
     </row>
-    <row r="93" spans="4:11">
+    <row r="93" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E93" s="119" t="s">
         <v>44</v>
       </c>
@@ -7838,7 +7636,7 @@
       <c r="J93" s="120"/>
       <c r="K93" s="120"/>
     </row>
-    <row r="94" spans="4:11">
+    <row r="94" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E94" s="119" t="s">
         <v>48</v>
       </c>
@@ -7853,7 +7651,7 @@
       <c r="J94" s="120"/>
       <c r="K94" s="120"/>
     </row>
-    <row r="95" spans="4:11">
+    <row r="95" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E95" s="119" t="s">
         <v>47</v>
       </c>
@@ -7868,7 +7666,7 @@
       <c r="J95" s="120"/>
       <c r="K95" s="120"/>
     </row>
-    <row r="96" spans="4:11">
+    <row r="96" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E96" s="119" t="s">
         <v>40</v>
       </c>
@@ -7883,7 +7681,7 @@
       <c r="J96" s="120"/>
       <c r="K96" s="120"/>
     </row>
-    <row r="97" spans="5:11">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E97" s="119" t="s">
         <v>46</v>
       </c>
@@ -7898,7 +7696,7 @@
       <c r="J97" s="120"/>
       <c r="K97" s="129"/>
     </row>
-    <row r="98" spans="5:11">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E98" s="141" t="s">
         <v>45</v>
       </c>
@@ -7913,7 +7711,7 @@
       <c r="J98" s="120"/>
       <c r="K98" s="129"/>
     </row>
-    <row r="99" spans="5:11">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E99" s="141"/>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7922,7 +7720,7 @@
       <c r="J99" s="120"/>
       <c r="K99" s="120"/>
     </row>
-    <row r="100" spans="5:11">
+    <row r="100" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E100" s="134" t="s">
         <v>81</v>
       </c>
@@ -7932,7 +7730,7 @@
       <c r="J100" s="120"/>
       <c r="K100" s="120"/>
     </row>
-    <row r="101" spans="5:11">
+    <row r="101" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E101" s="119" t="s">
         <v>43</v>
       </c>
@@ -7947,7 +7745,7 @@
       <c r="J101" s="120"/>
       <c r="K101" s="120"/>
     </row>
-    <row r="102" spans="5:11">
+    <row r="102" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E102" s="119" t="s">
         <v>44</v>
       </c>
@@ -7962,7 +7760,7 @@
       <c r="J102" s="120"/>
       <c r="K102" s="120"/>
     </row>
-    <row r="103" spans="5:11">
+    <row r="103" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E103" s="119" t="s">
         <v>48</v>
       </c>
@@ -7977,7 +7775,7 @@
       <c r="J103" s="120"/>
       <c r="K103" s="120"/>
     </row>
-    <row r="104" spans="5:11">
+    <row r="104" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E104" s="119" t="s">
         <v>47</v>
       </c>
@@ -7992,7 +7790,7 @@
       <c r="J104" s="120"/>
       <c r="K104" s="120"/>
     </row>
-    <row r="105" spans="5:11">
+    <row r="105" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E105" s="119" t="s">
         <v>40</v>
       </c>
@@ -8005,7 +7803,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="5:11">
+    <row r="106" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E106" s="119" t="s">
         <v>46</v>
       </c>
@@ -8018,7 +7816,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="5:11">
+    <row r="107" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E107" s="141" t="s">
         <v>45</v>
       </c>
@@ -8031,13 +7829,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:11">
+    <row r="108" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E108" s="141"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
       <c r="H108" s="23"/>
     </row>
-    <row r="109" spans="5:11">
+    <row r="109" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E109" s="134" t="s">
         <v>82</v>
       </c>
@@ -8045,7 +7843,7 @@
       <c r="G109" s="37"/>
       <c r="H109" s="112"/>
     </row>
-    <row r="110" spans="5:11">
+    <row r="110" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E110" s="119" t="s">
         <v>43</v>
       </c>
@@ -8058,7 +7856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="5:11">
+    <row r="111" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E111" s="119" t="s">
         <v>44</v>
       </c>
@@ -8071,7 +7869,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="5:11">
+    <row r="112" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E112" s="119" t="s">
         <v>48</v>
       </c>
@@ -8084,7 +7882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="5:9">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E113" s="119" t="s">
         <v>47</v>
       </c>
@@ -8097,7 +7895,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="5:9">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E114" s="119" t="s">
         <v>40</v>
       </c>
@@ -8110,7 +7908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="5:9">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E115" s="119" t="s">
         <v>46</v>
       </c>
@@ -8123,7 +7921,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="5:9">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E116" s="141" t="s">
         <v>45</v>
       </c>
@@ -8136,13 +7934,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="5:9">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E117" s="141"/>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
       <c r="H117" s="23"/>
     </row>
-    <row r="118" spans="5:9">
+    <row r="118" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E118" s="134" t="s">
         <v>83</v>
       </c>
@@ -8150,7 +7948,7 @@
       <c r="G118" s="37"/>
       <c r="H118" s="112"/>
     </row>
-    <row r="119" spans="5:9">
+    <row r="119" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E119" s="119" t="s">
         <v>43</v>
       </c>
@@ -8163,7 +7961,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="5:9">
+    <row r="120" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E120" s="119" t="s">
         <v>44</v>
       </c>
@@ -8176,7 +7974,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="5:9">
+    <row r="121" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E121" s="119" t="s">
         <v>48</v>
       </c>
@@ -8189,7 +7987,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="5:9" customFormat="1" ht="16">
+    <row r="122" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E122" s="119" t="s">
         <v>47</v>
       </c>
@@ -8202,7 +8000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="5:9" customFormat="1" ht="16">
+    <row r="123" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E123" s="119" t="s">
         <v>40</v>
       </c>
@@ -8215,7 +8013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="5:9" customFormat="1" ht="16">
+    <row r="124" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E124" s="119" t="s">
         <v>46</v>
       </c>
@@ -8228,7 +8026,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="5:9" customFormat="1" ht="16">
+    <row r="125" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E125" s="141" t="s">
         <v>45</v>
       </c>
@@ -8241,13 +8039,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="5:9" customFormat="1" ht="16">
+    <row r="126" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E126" s="141"/>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="23"/>
     </row>
-    <row r="127" spans="5:9">
+    <row r="127" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E127" s="134" t="s">
         <v>84</v>
       </c>
@@ -8255,7 +8053,7 @@
       <c r="G127" s="37"/>
       <c r="H127" s="112"/>
     </row>
-    <row r="128" spans="5:9">
+    <row r="128" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E128" s="119" t="s">
         <v>43</v>
       </c>
@@ -8268,7 +8066,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E129" s="119" t="s">
         <v>44</v>
       </c>
@@ -8281,7 +8079,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E130" s="119" t="s">
         <v>48</v>
       </c>
@@ -8294,7 +8092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E131" s="119" t="s">
         <v>47</v>
       </c>
@@ -8307,7 +8105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E132" s="119" t="s">
         <v>40</v>
       </c>
@@ -8320,7 +8118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E133" s="119" t="s">
         <v>46</v>
       </c>
@@ -8333,7 +8131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E134" s="141" t="s">
         <v>45</v>
       </c>
@@ -8346,8 +8144,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="16" thickBot="1"/>
-    <row r="137" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="136" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137" s="109"/>
       <c r="C137" s="110" t="s">
@@ -8376,7 +8174,7 @@
       <c r="T137" s="110"/>
       <c r="U137" s="110"/>
     </row>
-    <row r="138" spans="1:25" customFormat="1" ht="16">
+    <row r="138" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="107"/>
       <c r="C138" s="123"/>
       <c r="D138" s="120"/>
@@ -8402,10 +8200,10 @@
       <c r="X138" s="120"/>
       <c r="Y138" s="120"/>
     </row>
-    <row r="139" spans="1:25" customFormat="1" ht="17">
+    <row r="139" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B139" s="107"/>
       <c r="C139" s="128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
@@ -8430,7 +8228,7 @@
       <c r="X139" s="120"/>
       <c r="Y139" s="120"/>
     </row>
-    <row r="140" spans="1:25" customFormat="1" ht="16">
+    <row r="140" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="107"/>
       <c r="C140" s="120"/>
       <c r="D140" s="120"/>
@@ -8456,58 +8254,58 @@
       <c r="X140" s="120"/>
       <c r="Y140" s="120"/>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F141" s="153" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F142" s="153" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
-      <c r="F142" s="153" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="147" spans="6:9" ht="17">
+    <row r="147" spans="6:9" ht="18" x14ac:dyDescent="0.2">
       <c r="F147" s="154">
         <v>37</v>
       </c>
       <c r="G147" s="153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I147" s="153" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="6:9" ht="17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="6:9" ht="18" x14ac:dyDescent="0.2">
       <c r="F148" s="154">
         <f>dollar_per_euro</f>
         <v>1.0965</v>
       </c>
       <c r="G148" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="I148" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="I148" s="153" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="149" spans="6:9">
+    </row>
+    <row r="149" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F149" s="155">
         <f>F147/F148</f>
         <v>33.743730050159598</v>
       </c>
       <c r="G149" s="153" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="150" spans="6:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F150" s="106">
         <f>F9*1000</f>
         <v>26500</v>
       </c>
       <c r="G150" s="153" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="151" spans="6:9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F151" s="156">
         <f>F149/F150</f>
         <v>1.2733483037796075E-3</v>
@@ -8520,11 +8318,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8537,26 +8330,26 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.25" customWidth="1"/>
+    <col min="1" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="37" customFormat="1" ht="15">
+    <row r="1" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:9" s="37" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="2:9" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="162" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -8564,7 +8357,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:9" s="37" customFormat="1" ht="15">
+    <row r="3" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="165"/>
       <c r="C3" s="166"/>
       <c r="D3" s="166"/>
@@ -8572,7 +8365,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:9" s="37" customFormat="1" ht="15">
+    <row r="4" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="174"/>
       <c r="C4" s="175"/>
       <c r="D4" s="175"/>
@@ -8580,10 +8373,10 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:9" s="37" customFormat="1" thickBot="1">
+    <row r="5" spans="2:9" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:9" s="37" customFormat="1" ht="15">
+    <row r="6" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -8593,10 +8386,10 @@
       <c r="H6" s="21"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="2:9" s="44" customFormat="1" ht="18">
+    <row r="7" spans="2:9" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="94" t="s">
         <v>5</v>
@@ -8608,36 +8401,36 @@
         <v>4</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="97"/>
     </row>
-    <row r="8" spans="2:9" ht="19" thickBot="1">
+    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="2:9" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>106</v>
       </c>
       <c r="E9" s="130">
         <v>1.0965</v>
       </c>
       <c r="F9" s="112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="161">
         <v>42412</v>
       </c>
       <c r="H9" s="113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="45"/>
     </row>
@@ -8647,10 +8440,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/coal.carrier.xlsx
+++ b/carriers_source_analyses/coal.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="29400" windowHeight="20740" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="112">
   <si>
     <t>Source</t>
   </si>
@@ -356,27 +355,12 @@
     <t>US$/tonne</t>
   </si>
   <si>
-    <t>http://energeia.nl/nieuws/845775-1507/stemming-abn-amro-stelt-prijsverwachting-olie-naar-beneden-bij</t>
-  </si>
-  <si>
-    <t>CAL-16 contract</t>
-  </si>
-  <si>
-    <t>date: 29/07/2015</t>
-  </si>
-  <si>
     <t>Energeia</t>
   </si>
   <si>
     <t>dollar / euro</t>
   </si>
   <si>
-    <t>running month average</t>
-  </si>
-  <si>
-    <t>CAL 16 contract</t>
-  </si>
-  <si>
     <t>EUR/tonne</t>
   </si>
   <si>
@@ -399,9 +383,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>http://www.ecb.europa.eu/stats/exchange/eurofxref/html/eurofxref-graph-usd.en.html</t>
   </si>
   <si>
     <t>Uses exchange rate from `dollar_per_euro.xlsx`</t>
@@ -410,6 +391,27 @@
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
+  <si>
+    <t>https://energeia.nl/energeia-artikel/40062204/stemming-gasbedrijven-gaan-methaanemissies-terugdringen</t>
+  </si>
+  <si>
+    <t>CAL-18 contract</t>
+  </si>
+  <si>
+    <t>CAL 18 contract</t>
+  </si>
+  <si>
+    <t>https://www.ecb.europa.eu/stats/policy_and_exchange_rates/euro_reference_exchange_rates/html/eurofxref-graph-usd.en.html</t>
+  </si>
+  <si>
+    <t>running monthly average</t>
+  </si>
+  <si>
+    <t>exchange rate dolar euro</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
   </si>
 </sst>
 </file>
@@ -426,12 +428,19 @@
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -543,6 +552,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,6 +560,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,6 +568,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,6 +576,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,17 +584,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,11 +611,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -623,6 +641,7 @@
       <sz val="16"/>
       <color rgb="FF474747"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -641,6 +660,7 @@
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1044,668 +1064,670 @@
   </borders>
   <cellStyleXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="377">
     <cellStyle name="Excel Built-in Normal" xfId="365"/>
@@ -2224,19 +2246,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>86360</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2249,8 +2271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8140700" y="28600400"/>
-          <a:ext cx="9410700" cy="8953500"/>
+          <a:off x="6169660" y="29362400"/>
+          <a:ext cx="7940040" cy="6616700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2370,27 +2392,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-      <definedName name="update_fce"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2725,11 +2726,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="22"/>
+    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -2923,23 +2924,23 @@
   </sheetPr>
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="37"/>
+    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -2950,7 +2951,7 @@
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="162" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -3065,13 +3066,13 @@
       </c>
       <c r="E11" s="158">
         <f>'Research data'!G7</f>
-        <v>1.2733483037796075E-3</v>
+        <v>2.6887476714962158E-3</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="112"/>
       <c r="H11" s="31"/>
       <c r="I11" s="159" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J11" s="45"/>
     </row>
@@ -3146,17 +3147,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="37"/>
+    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -4516,21 +4517,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="66" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="66" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="66" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="66" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="66" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="66" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="66" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="67" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="66" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="66" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="66" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="67" customWidth="1"/>
     <col min="10" max="10" width="3" style="67" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="67" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="67" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="67" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="67" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="67" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="67" customWidth="1"/>
     <col min="15" max="15" width="60" style="66" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="66"/>
+    <col min="16" max="16384" width="10.83203125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4573,7 +4574,7 @@
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N3" s="64"/>
       <c r="O3" s="1" t="s">
@@ -4656,7 +4657,7 @@
       </c>
       <c r="G7" s="157">
         <f>M7</f>
-        <v>1.2733483037796075E-3</v>
+        <v>2.6887476714962158E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4665,11 +4666,11 @@
       <c r="L7" s="18"/>
       <c r="M7" s="145">
         <f>Notes!F151</f>
-        <v>1.2733483037796075E-3</v>
+        <v>2.6887476714962158E-3</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="160" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6128,25 +6129,25 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="48" customWidth="1"/>
     <col min="6" max="6" width="5" style="48" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="48" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="48"/>
+    <col min="7" max="7" width="10.33203125" style="48" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -6327,22 +6328,32 @@
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="126" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F13" s="126"/>
       <c r="G13" s="61"/>
       <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
+      <c r="I13" s="65">
+        <v>2017</v>
+      </c>
       <c r="J13" s="61"/>
       <c r="K13" s="63"/>
       <c r="L13" s="62" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="53"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6355,18 +6366,18 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y151"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="106" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="106" customWidth="1"/>
     <col min="2" max="2" width="5" style="106" customWidth="1"/>
     <col min="3" max="5" width="7" style="106"/>
-    <col min="6" max="6" width="10.85546875" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="106" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="106"/>
-    <col min="8" max="8" width="9.5703125" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="106" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="106"/>
   </cols>
   <sheetData>
@@ -8203,7 +8214,7 @@
     <row r="139" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B139" s="107"/>
       <c r="C139" s="128" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
@@ -8255,45 +8266,45 @@
       <c r="Y140" s="120"/>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F141" s="153" t="s">
-        <v>94</v>
+      <c r="F141" s="177" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F142" s="153" t="s">
-        <v>95</v>
+      <c r="F142" s="178">
+        <v>43061</v>
       </c>
     </row>
     <row r="147" spans="6:9" ht="18" x14ac:dyDescent="0.2">
       <c r="F147" s="154">
-        <v>37</v>
+        <v>83.5</v>
       </c>
       <c r="G147" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="I147" s="153" t="s">
-        <v>99</v>
+      <c r="I147" s="177" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="6:9" ht="18" x14ac:dyDescent="0.2">
       <c r="F148" s="154">
         <f>dollar_per_euro</f>
-        <v>1.0965</v>
+        <v>1.1718999999999999</v>
       </c>
       <c r="G148" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="I148" s="153" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="I148" s="177" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="149" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F149" s="155">
         <f>F147/F148</f>
-        <v>33.743730050159598</v>
+        <v>71.251813294649722</v>
       </c>
       <c r="G149" s="153" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="6:9" x14ac:dyDescent="0.2">
@@ -8302,13 +8313,13 @@
         <v>26500</v>
       </c>
       <c r="G150" s="153" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F151" s="156">
         <f>F149/F150</f>
-        <v>1.2733483037796075E-3</v>
+        <v>2.6887476714962158E-3</v>
       </c>
       <c r="G151" s="153" t="s">
         <v>55</v>
@@ -8327,18 +8338,18 @@
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -8349,7 +8360,7 @@
     </row>
     <row r="2" spans="2:9" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="162" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -8389,7 +8400,7 @@
     <row r="7" spans="2:9" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D7" s="94" t="s">
         <v>5</v>
@@ -8401,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>0</v>
@@ -8415,19 +8426,19 @@
     <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="103" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E9" s="130">
-        <v>1.0965</v>
+        <v>1.1718999999999999</v>
       </c>
       <c r="F9" s="112" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G9" s="161">
-        <v>42412</v>
+        <v>43068</v>
       </c>
       <c r="H9" s="113" t="s">
         <v>108</v>

--- a/carriers_source_analyses/coal.carrier.xlsx
+++ b/carriers_source_analyses/coal.carrier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD7EA43-6786-E64F-A987-931D3594D9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="29400" windowHeight="20740" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="29400" windowHeight="20740" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -39,10 +40,19 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="112">
   <si>
     <t>Source</t>
   </si>
@@ -417,8 +427,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -426,9 +436,8 @@
     <numFmt numFmtId="168" formatCode="0.00000000"/>
     <numFmt numFmtId="169" formatCode="0.000000000"/>
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1444,7 +1453,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1677,10 +1686,10 @@
     <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1726,11 +1735,9 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="377">
-    <cellStyle name="Excel Built-in Normal" xfId="365"/>
+    <cellStyle name="Excel Built-in Normal" xfId="365" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2114,6 +2121,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2135,7 +2145,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1"/>
+        <xdr:cNvPr id="7" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2182,7 +2198,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2220,7 +2242,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2258,7 +2286,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2718,39 +2752,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="28" customFormat="1">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>87</v>
@@ -2759,7 +2793,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -2768,7 +2802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -2777,17 +2811,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="78" t="s">
         <v>15</v>
@@ -2795,13 +2829,13 @@
       <c r="C9" s="79"/>
       <c r="D9" s="148"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="80"/>
       <c r="C10" s="81"/>
       <c r="D10" s="149"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="80" t="s">
         <v>16</v>
@@ -2811,7 +2845,7 @@
       </c>
       <c r="D11" s="149"/>
     </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="80"/>
       <c r="C12" s="19" t="s">
@@ -2819,7 +2853,7 @@
       </c>
       <c r="D12" s="149"/>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="80"/>
       <c r="C13" s="83" t="s">
@@ -2827,7 +2861,7 @@
       </c>
       <c r="D13" s="149"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81" t="s">
@@ -2835,13 +2869,13 @@
       </c>
       <c r="D14" s="149"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
       <c r="D15" s="149"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="80" t="s">
         <v>21</v>
@@ -2851,7 +2885,7 @@
       </c>
       <c r="D16" s="149"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
       <c r="B17" s="80"/>
       <c r="C17" s="85" t="s">
@@ -2859,7 +2893,7 @@
       </c>
       <c r="D17" s="149"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="80"/>
       <c r="C18" s="86" t="s">
@@ -2867,7 +2901,7 @@
       </c>
       <c r="D18" s="149"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="80"/>
       <c r="C19" s="87" t="s">
@@ -2875,7 +2909,7 @@
       </c>
       <c r="D19" s="149"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="88"/>
       <c r="C20" s="89" t="s">
@@ -2883,7 +2917,7 @@
       </c>
       <c r="D20" s="149"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="88"/>
       <c r="C21" s="90" t="s">
@@ -2891,7 +2925,7 @@
       </c>
       <c r="D21" s="149"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="88"/>
       <c r="C22" s="91" t="s">
@@ -2899,14 +2933,14 @@
       </c>
       <c r="D22" s="149"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="B23" s="88"/>
       <c r="C23" s="92" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="149"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="150"/>
       <c r="C24" s="151"/>
       <c r="D24" s="152"/>
@@ -2918,38 +2952,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="162" t="s">
         <v>104</v>
       </c>
@@ -2959,7 +2993,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="165"/>
       <c r="C3" s="166"/>
       <c r="D3" s="166"/>
@@ -2967,7 +3001,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:10" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="105" customHeight="1">
       <c r="B4" s="168"/>
       <c r="C4" s="169"/>
       <c r="D4" s="169"/>
@@ -2975,10 +3009,10 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -2989,7 +3023,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
@@ -3010,7 +3044,7 @@
       </c>
       <c r="J7" s="97"/>
     </row>
-    <row r="8" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B8" s="24"/>
       <c r="C8" s="19"/>
       <c r="D8" s="32"/>
@@ -3021,7 +3055,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="24"/>
       <c r="C9" s="147" t="s">
         <v>89</v>
@@ -3034,7 +3068,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="24"/>
       <c r="C10" s="103" t="s">
         <v>38</v>
@@ -3056,76 +3090,36 @@
       </c>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="24"/>
       <c r="C11" s="112" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="158">
-        <f>'Research data'!G7</f>
-        <v>2.6887476714962158E-3</v>
+        <v>54</v>
+      </c>
+      <c r="E11" s="47">
+        <f>'Research data'!G8</f>
+        <v>26.5</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="112"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="159" t="s">
-        <v>93</v>
+      <c r="I11" s="132" t="s">
+        <v>74</v>
       </c>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="47">
-        <f>'Research data'!G8</f>
-        <v>26.5</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="105">
-        <f>'Research data'!G9</f>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
+    <row r="12" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3137,36 +3131,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="162" t="s">
         <v>90</v>
       </c>
@@ -3176,7 +3170,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="165"/>
       <c r="C3" s="166"/>
       <c r="D3" s="166"/>
@@ -3184,7 +3178,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="171"/>
       <c r="C4" s="172"/>
       <c r="D4" s="172"/>
@@ -3192,10 +3186,10 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -3206,7 +3200,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
@@ -3227,7 +3221,7 @@
       </c>
       <c r="J7" s="97"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="40"/>
       <c r="C8" s="76"/>
       <c r="D8" s="95"/>
@@ -3238,7 +3232,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="98"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="40"/>
       <c r="C9" s="19" t="s">
         <v>37</v>
@@ -3251,7 +3245,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="98"/>
     </row>
-    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="17" thickBot="1">
       <c r="B10" s="40"/>
       <c r="C10" s="138" t="s">
         <v>78</v>
@@ -3264,7 +3258,7 @@
       <c r="I10" s="112"/>
       <c r="J10" s="98"/>
     </row>
-    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="40"/>
       <c r="C11" s="115" t="s">
         <v>43</v>
@@ -3286,7 +3280,7 @@
       </c>
       <c r="J11" s="98"/>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="40"/>
       <c r="C12" s="115" t="s">
         <v>44</v>
@@ -3308,7 +3302,7 @@
       </c>
       <c r="J12" s="98"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="40"/>
       <c r="C13" s="115" t="s">
         <v>48</v>
@@ -3330,7 +3324,7 @@
       </c>
       <c r="J13" s="98"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="40"/>
       <c r="C14" s="115" t="s">
         <v>47</v>
@@ -3352,7 +3346,7 @@
       </c>
       <c r="J14" s="98"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="115" t="s">
         <v>40</v>
@@ -3374,7 +3368,7 @@
       </c>
       <c r="J15" s="98"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="115" t="s">
         <v>46</v>
@@ -3396,7 +3390,7 @@
       </c>
       <c r="J16" s="98"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="40"/>
       <c r="C17" s="140" t="s">
         <v>45</v>
@@ -3416,7 +3410,7 @@
       </c>
       <c r="J17" s="98"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="40"/>
       <c r="C18" s="140"/>
       <c r="D18" s="23"/>
@@ -3427,7 +3421,7 @@
       <c r="I18" s="139"/>
       <c r="J18" s="98"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="40"/>
       <c r="C19" s="138" t="s">
         <v>79</v>
@@ -3440,7 +3434,7 @@
       <c r="I19" s="112"/>
       <c r="J19" s="98"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="40"/>
       <c r="C20" s="115" t="s">
         <v>43</v>
@@ -3462,7 +3456,7 @@
       </c>
       <c r="J20" s="98"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="115" t="s">
         <v>44</v>
@@ -3484,7 +3478,7 @@
       </c>
       <c r="J21" s="98"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="40"/>
       <c r="C22" s="115" t="s">
         <v>48</v>
@@ -3506,7 +3500,7 @@
       </c>
       <c r="J22" s="98"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="115" t="s">
         <v>47</v>
@@ -3528,7 +3522,7 @@
       </c>
       <c r="J23" s="98"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="40"/>
       <c r="C24" s="115" t="s">
         <v>40</v>
@@ -3550,7 +3544,7 @@
       </c>
       <c r="J24" s="98"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="40"/>
       <c r="C25" s="115" t="s">
         <v>46</v>
@@ -3572,7 +3566,7 @@
       </c>
       <c r="J25" s="98"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="40"/>
       <c r="C26" s="140" t="s">
         <v>45</v>
@@ -3592,7 +3586,7 @@
       </c>
       <c r="J26" s="98"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="B27" s="40"/>
       <c r="C27" s="140"/>
       <c r="D27" s="23"/>
@@ -3603,7 +3597,7 @@
       <c r="I27" s="139"/>
       <c r="J27" s="98"/>
     </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="40"/>
       <c r="C28" s="138" t="s">
         <v>80</v>
@@ -3616,7 +3610,7 @@
       <c r="I28" s="112"/>
       <c r="J28" s="98"/>
     </row>
-    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="40"/>
       <c r="C29" s="115" t="s">
         <v>43</v>
@@ -3638,7 +3632,7 @@
       </c>
       <c r="J29" s="98"/>
     </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="40"/>
       <c r="C30" s="115" t="s">
         <v>44</v>
@@ -3660,7 +3654,7 @@
       </c>
       <c r="J30" s="98"/>
     </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="40"/>
       <c r="C31" s="115" t="s">
         <v>48</v>
@@ -3682,7 +3676,7 @@
       </c>
       <c r="J31" s="98"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="40"/>
       <c r="C32" s="115" t="s">
         <v>47</v>
@@ -3704,7 +3698,7 @@
       </c>
       <c r="J32" s="98"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="40"/>
       <c r="C33" s="115" t="s">
         <v>40</v>
@@ -3726,7 +3720,7 @@
       </c>
       <c r="J33" s="98"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="40"/>
       <c r="C34" s="115" t="s">
         <v>46</v>
@@ -3748,7 +3742,7 @@
       </c>
       <c r="J34" s="98"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="40"/>
       <c r="C35" s="140" t="s">
         <v>45</v>
@@ -3768,7 +3762,7 @@
       </c>
       <c r="J35" s="98"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="40"/>
       <c r="C36" s="140"/>
       <c r="D36" s="23"/>
@@ -3779,7 +3773,7 @@
       <c r="I36" s="139"/>
       <c r="J36" s="98"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="40"/>
       <c r="C37" s="138" t="s">
         <v>81</v>
@@ -3792,7 +3786,7 @@
       <c r="I37" s="112"/>
       <c r="J37" s="98"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="40"/>
       <c r="C38" s="115" t="s">
         <v>43</v>
@@ -3814,7 +3808,7 @@
       </c>
       <c r="J38" s="98"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="40"/>
       <c r="C39" s="115" t="s">
         <v>44</v>
@@ -3836,7 +3830,7 @@
       </c>
       <c r="J39" s="98"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="40"/>
       <c r="C40" s="115" t="s">
         <v>48</v>
@@ -3858,7 +3852,7 @@
       </c>
       <c r="J40" s="98"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="40"/>
       <c r="C41" s="115" t="s">
         <v>47</v>
@@ -3880,7 +3874,7 @@
       </c>
       <c r="J41" s="98"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="40"/>
       <c r="C42" s="115" t="s">
         <v>40</v>
@@ -3902,7 +3896,7 @@
       </c>
       <c r="J42" s="98"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="40"/>
       <c r="C43" s="115" t="s">
         <v>46</v>
@@ -3924,7 +3918,7 @@
       </c>
       <c r="J43" s="98"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="17" thickBot="1">
       <c r="B44" s="40"/>
       <c r="C44" s="140" t="s">
         <v>45</v>
@@ -3944,7 +3938,7 @@
       </c>
       <c r="J44" s="98"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10">
       <c r="B45" s="40"/>
       <c r="C45" s="140"/>
       <c r="D45" s="23"/>
@@ -3955,7 +3949,7 @@
       <c r="I45" s="139"/>
       <c r="J45" s="98"/>
     </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="17" thickBot="1">
       <c r="B46" s="40"/>
       <c r="C46" s="138" t="s">
         <v>82</v>
@@ -3968,7 +3962,7 @@
       <c r="I46" s="112"/>
       <c r="J46" s="98"/>
     </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="17" thickBot="1">
       <c r="B47" s="40"/>
       <c r="C47" s="115" t="s">
         <v>43</v>
@@ -3990,7 +3984,7 @@
       </c>
       <c r="J47" s="98"/>
     </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="17" thickBot="1">
       <c r="B48" s="40"/>
       <c r="C48" s="115" t="s">
         <v>44</v>
@@ -4012,7 +4006,7 @@
       </c>
       <c r="J48" s="98"/>
     </row>
-    <row r="49" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="17" thickBot="1">
       <c r="B49" s="40"/>
       <c r="C49" s="115" t="s">
         <v>48</v>
@@ -4034,7 +4028,7 @@
       </c>
       <c r="J49" s="98"/>
     </row>
-    <row r="50" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="17" thickBot="1">
       <c r="B50" s="40"/>
       <c r="C50" s="115" t="s">
         <v>47</v>
@@ -4056,7 +4050,7 @@
       </c>
       <c r="J50" s="98"/>
     </row>
-    <row r="51" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" ht="17" thickBot="1">
       <c r="B51" s="40"/>
       <c r="C51" s="115" t="s">
         <v>40</v>
@@ -4078,7 +4072,7 @@
       </c>
       <c r="J51" s="98"/>
     </row>
-    <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="17" thickBot="1">
       <c r="B52" s="40"/>
       <c r="C52" s="115" t="s">
         <v>46</v>
@@ -4100,7 +4094,7 @@
       </c>
       <c r="J52" s="98"/>
     </row>
-    <row r="53" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="17" thickBot="1">
       <c r="B53" s="40"/>
       <c r="C53" s="140" t="s">
         <v>45</v>
@@ -4120,7 +4114,7 @@
       </c>
       <c r="J53" s="98"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10">
       <c r="B54" s="40"/>
       <c r="C54" s="140"/>
       <c r="D54" s="23"/>
@@ -4131,7 +4125,7 @@
       <c r="I54" s="139"/>
       <c r="J54" s="98"/>
     </row>
-    <row r="55" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" ht="17" thickBot="1">
       <c r="B55" s="40"/>
       <c r="C55" s="138" t="s">
         <v>83</v>
@@ -4144,7 +4138,7 @@
       <c r="I55" s="112"/>
       <c r="J55" s="98"/>
     </row>
-    <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" ht="17" thickBot="1">
       <c r="B56" s="40"/>
       <c r="C56" s="115" t="s">
         <v>43</v>
@@ -4166,7 +4160,7 @@
       </c>
       <c r="J56" s="98"/>
     </row>
-    <row r="57" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="17" thickBot="1">
       <c r="B57" s="40"/>
       <c r="C57" s="115" t="s">
         <v>44</v>
@@ -4188,7 +4182,7 @@
       </c>
       <c r="J57" s="98"/>
     </row>
-    <row r="58" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" ht="17" thickBot="1">
       <c r="B58" s="40"/>
       <c r="C58" s="115" t="s">
         <v>48</v>
@@ -4210,7 +4204,7 @@
       </c>
       <c r="J58" s="98"/>
     </row>
-    <row r="59" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" ht="17" thickBot="1">
       <c r="B59" s="40"/>
       <c r="C59" s="115" t="s">
         <v>47</v>
@@ -4232,7 +4226,7 @@
       </c>
       <c r="J59" s="98"/>
     </row>
-    <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" ht="17" thickBot="1">
       <c r="B60" s="40"/>
       <c r="C60" s="115" t="s">
         <v>40</v>
@@ -4254,7 +4248,7 @@
       </c>
       <c r="J60" s="98"/>
     </row>
-    <row r="61" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" ht="17" thickBot="1">
       <c r="B61" s="40"/>
       <c r="C61" s="115" t="s">
         <v>46</v>
@@ -4276,7 +4270,7 @@
       </c>
       <c r="J61" s="98"/>
     </row>
-    <row r="62" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" ht="17" thickBot="1">
       <c r="B62" s="40"/>
       <c r="C62" s="140" t="s">
         <v>45</v>
@@ -4296,7 +4290,7 @@
       </c>
       <c r="J62" s="98"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10">
       <c r="B63" s="40"/>
       <c r="C63" s="140"/>
       <c r="D63" s="23"/>
@@ -4307,7 +4301,7 @@
       <c r="I63" s="139"/>
       <c r="J63" s="98"/>
     </row>
-    <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" ht="17" thickBot="1">
       <c r="B64" s="40"/>
       <c r="C64" s="138" t="s">
         <v>84</v>
@@ -4320,7 +4314,7 @@
       <c r="I64" s="112"/>
       <c r="J64" s="98"/>
     </row>
-    <row r="65" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" ht="17" thickBot="1">
       <c r="B65" s="40"/>
       <c r="C65" s="115" t="s">
         <v>43</v>
@@ -4342,7 +4336,7 @@
       </c>
       <c r="J65" s="98"/>
     </row>
-    <row r="66" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" ht="17" thickBot="1">
       <c r="B66" s="40"/>
       <c r="C66" s="115" t="s">
         <v>44</v>
@@ -4364,7 +4358,7 @@
       </c>
       <c r="J66" s="98"/>
     </row>
-    <row r="67" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" ht="17" thickBot="1">
       <c r="B67" s="40"/>
       <c r="C67" s="115" t="s">
         <v>48</v>
@@ -4386,7 +4380,7 @@
       </c>
       <c r="J67" s="98"/>
     </row>
-    <row r="68" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" ht="17" thickBot="1">
       <c r="B68" s="40"/>
       <c r="C68" s="115" t="s">
         <v>47</v>
@@ -4408,7 +4402,7 @@
       </c>
       <c r="J68" s="98"/>
     </row>
-    <row r="69" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" ht="17" thickBot="1">
       <c r="B69" s="40"/>
       <c r="C69" s="115" t="s">
         <v>40</v>
@@ -4430,7 +4424,7 @@
       </c>
       <c r="J69" s="98"/>
     </row>
-    <row r="70" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" ht="17" thickBot="1">
       <c r="B70" s="40"/>
       <c r="C70" s="115" t="s">
         <v>46</v>
@@ -4452,7 +4446,7 @@
       </c>
       <c r="J70" s="98"/>
     </row>
-    <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" ht="17" thickBot="1">
       <c r="B71" s="40"/>
       <c r="C71" s="140" t="s">
         <v>45</v>
@@ -4472,7 +4466,7 @@
       </c>
       <c r="J71" s="98"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10">
       <c r="B72" s="40"/>
       <c r="C72" s="140"/>
       <c r="D72" s="23"/>
@@ -4483,7 +4477,7 @@
       <c r="I72" s="139"/>
       <c r="J72" s="98"/>
     </row>
-    <row r="73" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" ht="17" thickBot="1">
       <c r="B73" s="41"/>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
@@ -4505,8 +4499,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:O126"/>
@@ -4515,27 +4509,27 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="66" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="66" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="66" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="66" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="66" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="67" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="66" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="67" customWidth="1"/>
     <col min="10" max="10" width="3" style="67" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="67" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="67" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="67" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="67" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="67" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="67" customWidth="1"/>
     <col min="15" max="15" width="60" style="66" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="66"/>
+    <col min="16" max="16384" width="10.85546875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -4551,7 +4545,7 @@
       <c r="N2" s="70"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="2:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" s="25" customFormat="1">
       <c r="B3" s="24"/>
       <c r="C3" s="102" t="s">
         <v>30</v>
@@ -4581,7 +4575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -4597,7 +4591,7 @@
       <c r="N4" s="101"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="17" thickBot="1">
       <c r="B5" s="72"/>
       <c r="C5" s="19" t="s">
         <v>56</v>
@@ -4615,7 +4609,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="17" thickBot="1">
       <c r="B6" s="72"/>
       <c r="C6" s="116" t="s">
         <v>38</v>
@@ -4641,7 +4635,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="117" t="s">
         <v>39</v>
@@ -4669,11 +4663,11 @@
         <v>2.6887476714962158E-3</v>
       </c>
       <c r="N7" s="16"/>
-      <c r="O7" s="160" t="s">
+      <c r="O7" s="158" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="117" t="s">
         <v>88</v>
@@ -4703,7 +4697,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="118" t="s">
         <v>40</v>
@@ -4733,7 +4727,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15">
       <c r="B10" s="72"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -4749,7 +4743,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" s="37" customFormat="1">
       <c r="B11" s="40"/>
       <c r="C11" s="19" t="s">
         <v>37</v>
@@ -4763,7 +4757,7 @@
       <c r="J11" s="18"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B12" s="40"/>
       <c r="C12" s="134" t="s">
         <v>78</v>
@@ -4777,7 +4771,7 @@
       <c r="J12" s="18"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B13" s="40"/>
       <c r="C13" s="119" t="s">
         <v>43</v>
@@ -4798,7 +4792,7 @@
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B14" s="40"/>
       <c r="C14" s="119" t="s">
         <v>44</v>
@@ -4819,7 +4813,7 @@
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="119" t="s">
         <v>48</v>
@@ -4840,7 +4834,7 @@
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="119" t="s">
         <v>47</v>
@@ -4861,7 +4855,7 @@
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B17" s="40"/>
       <c r="C17" s="119" t="s">
         <v>40</v>
@@ -4882,7 +4876,7 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B18" s="40"/>
       <c r="C18" s="119" t="s">
         <v>46</v>
@@ -4903,7 +4897,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B19" s="40"/>
       <c r="C19" s="141" t="s">
         <v>45</v>
@@ -4924,7 +4918,7 @@
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" s="37" customFormat="1">
       <c r="B20" s="40"/>
       <c r="C20" s="141"/>
       <c r="F20" s="23"/>
@@ -4935,7 +4929,7 @@
       <c r="K20" s="139"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="134" t="s">
         <v>79</v>
@@ -4948,7 +4942,7 @@
       <c r="K21" s="112"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B22" s="40"/>
       <c r="C22" s="119" t="s">
         <v>43</v>
@@ -4969,7 +4963,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="119" t="s">
         <v>44</v>
@@ -4990,7 +4984,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B24" s="40"/>
       <c r="C24" s="119" t="s">
         <v>48</v>
@@ -5011,7 +5005,7 @@
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B25" s="40"/>
       <c r="C25" s="119" t="s">
         <v>47</v>
@@ -5032,7 +5026,7 @@
       </c>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B26" s="40"/>
       <c r="C26" s="119" t="s">
         <v>40</v>
@@ -5053,7 +5047,7 @@
       </c>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B27" s="40"/>
       <c r="C27" s="119" t="s">
         <v>46</v>
@@ -5074,7 +5068,7 @@
       </c>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B28" s="40"/>
       <c r="C28" s="141" t="s">
         <v>45</v>
@@ -5095,7 +5089,7 @@
       </c>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" s="37" customFormat="1">
       <c r="B29" s="40"/>
       <c r="C29" s="141"/>
       <c r="F29" s="23"/>
@@ -5106,7 +5100,7 @@
       <c r="K29" s="139"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B30" s="40"/>
       <c r="C30" s="134" t="s">
         <v>80</v>
@@ -5119,7 +5113,7 @@
       <c r="K30" s="112"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B31" s="40"/>
       <c r="C31" s="119" t="s">
         <v>43</v>
@@ -5140,7 +5134,7 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B32" s="40"/>
       <c r="C32" s="119" t="s">
         <v>44</v>
@@ -5161,7 +5155,7 @@
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B33" s="40"/>
       <c r="C33" s="119" t="s">
         <v>48</v>
@@ -5182,7 +5176,7 @@
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B34" s="40"/>
       <c r="C34" s="119" t="s">
         <v>47</v>
@@ -5203,7 +5197,7 @@
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B35" s="40"/>
       <c r="C35" s="119" t="s">
         <v>40</v>
@@ -5224,7 +5218,7 @@
       </c>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B36" s="40"/>
       <c r="C36" s="119" t="s">
         <v>46</v>
@@ -5245,7 +5239,7 @@
       </c>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B37" s="40"/>
       <c r="C37" s="141" t="s">
         <v>45</v>
@@ -5266,7 +5260,7 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" s="37" customFormat="1">
       <c r="B38" s="40"/>
       <c r="C38" s="141"/>
       <c r="F38" s="23"/>
@@ -5277,7 +5271,7 @@
       <c r="K38" s="139"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B39" s="40"/>
       <c r="C39" s="134" t="s">
         <v>81</v>
@@ -5290,7 +5284,7 @@
       <c r="K39" s="112"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B40" s="40"/>
       <c r="C40" s="119" t="s">
         <v>43</v>
@@ -5311,7 +5305,7 @@
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B41" s="40"/>
       <c r="C41" s="119" t="s">
         <v>44</v>
@@ -5332,7 +5326,7 @@
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B42" s="40"/>
       <c r="C42" s="119" t="s">
         <v>48</v>
@@ -5353,7 +5347,7 @@
       </c>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B43" s="40"/>
       <c r="C43" s="119" t="s">
         <v>47</v>
@@ -5374,7 +5368,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B44" s="40"/>
       <c r="C44" s="119" t="s">
         <v>40</v>
@@ -5395,7 +5389,7 @@
       </c>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B45" s="40"/>
       <c r="C45" s="119" t="s">
         <v>46</v>
@@ -5416,7 +5410,7 @@
       </c>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B46" s="40"/>
       <c r="C46" s="141" t="s">
         <v>45</v>
@@ -5437,7 +5431,7 @@
       </c>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" s="37" customFormat="1">
       <c r="B47" s="40"/>
       <c r="C47" s="141"/>
       <c r="F47" s="23"/>
@@ -5448,7 +5442,7 @@
       <c r="K47" s="139"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B48" s="40"/>
       <c r="C48" s="134" t="s">
         <v>82</v>
@@ -5461,7 +5455,7 @@
       <c r="K48" s="112"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B49" s="40"/>
       <c r="C49" s="119" t="s">
         <v>43</v>
@@ -5482,7 +5476,7 @@
       </c>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B50" s="40"/>
       <c r="C50" s="119" t="s">
         <v>44</v>
@@ -5503,7 +5497,7 @@
       </c>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B51" s="40"/>
       <c r="C51" s="119" t="s">
         <v>48</v>
@@ -5524,7 +5518,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B52" s="40"/>
       <c r="C52" s="119" t="s">
         <v>47</v>
@@ -5545,7 +5539,7 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B53" s="40"/>
       <c r="C53" s="119" t="s">
         <v>40</v>
@@ -5566,7 +5560,7 @@
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B54" s="40"/>
       <c r="C54" s="119" t="s">
         <v>46</v>
@@ -5587,7 +5581,7 @@
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B55" s="40"/>
       <c r="C55" s="141" t="s">
         <v>45</v>
@@ -5608,7 +5602,7 @@
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15" s="37" customFormat="1">
       <c r="B56" s="40"/>
       <c r="C56" s="141"/>
       <c r="F56" s="23"/>
@@ -5619,7 +5613,7 @@
       <c r="K56" s="139"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B57" s="40"/>
       <c r="C57" s="134" t="s">
         <v>83</v>
@@ -5632,7 +5626,7 @@
       <c r="K57" s="112"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B58" s="40"/>
       <c r="C58" s="119" t="s">
         <v>43</v>
@@ -5653,7 +5647,7 @@
       </c>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B59" s="40"/>
       <c r="C59" s="119" t="s">
         <v>44</v>
@@ -5674,7 +5668,7 @@
       </c>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B60" s="40"/>
       <c r="C60" s="119" t="s">
         <v>48</v>
@@ -5695,7 +5689,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B61" s="40"/>
       <c r="C61" s="119" t="s">
         <v>47</v>
@@ -5716,7 +5710,7 @@
       </c>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B62" s="40"/>
       <c r="C62" s="119" t="s">
         <v>40</v>
@@ -5737,7 +5731,7 @@
       </c>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B63" s="40"/>
       <c r="C63" s="119" t="s">
         <v>46</v>
@@ -5758,7 +5752,7 @@
       </c>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B64" s="40"/>
       <c r="C64" s="141" t="s">
         <v>45</v>
@@ -5779,7 +5773,7 @@
       </c>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15" s="37" customFormat="1">
       <c r="B65" s="40"/>
       <c r="C65" s="141"/>
       <c r="F65" s="23"/>
@@ -5790,7 +5784,7 @@
       <c r="K65" s="139"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B66" s="40"/>
       <c r="C66" s="134" t="s">
         <v>84</v>
@@ -5803,7 +5797,7 @@
       <c r="K66" s="112"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B67" s="40"/>
       <c r="C67" s="119" t="s">
         <v>43</v>
@@ -5824,7 +5818,7 @@
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B68" s="40"/>
       <c r="C68" s="119" t="s">
         <v>44</v>
@@ -5845,7 +5839,7 @@
       </c>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B69" s="40"/>
       <c r="C69" s="119" t="s">
         <v>48</v>
@@ -5866,7 +5860,7 @@
       </c>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B70" s="40"/>
       <c r="C70" s="119" t="s">
         <v>47</v>
@@ -5887,7 +5881,7 @@
       </c>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B71" s="40"/>
       <c r="C71" s="119" t="s">
         <v>40</v>
@@ -5908,7 +5902,7 @@
       </c>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B72" s="40"/>
       <c r="C72" s="119" t="s">
         <v>46</v>
@@ -5929,7 +5923,7 @@
       </c>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="B73" s="40"/>
       <c r="C73" s="141" t="s">
         <v>45</v>
@@ -5950,7 +5944,7 @@
       </c>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="2:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15" s="37" customFormat="1">
       <c r="B74" s="40"/>
       <c r="C74" s="140"/>
       <c r="D74" s="23"/>
@@ -5962,160 +5956,160 @@
       <c r="J74" s="18"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15">
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="H80" s="17"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8">
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8">
       <c r="H82" s="17"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8">
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8">
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8">
       <c r="H85" s="17"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:8">
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8">
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8">
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:8">
       <c r="H89" s="17"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8">
       <c r="H90" s="17"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8">
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8">
       <c r="H92" s="17"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8">
       <c r="H93" s="17"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8">
       <c r="H94" s="17"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:8">
       <c r="H95" s="17"/>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:8">
       <c r="H96" s="17"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8">
       <c r="H97" s="17"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:8">
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:8">
       <c r="H99" s="17"/>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:8">
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:8">
       <c r="H101" s="17"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:8">
       <c r="H102" s="17"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:8">
       <c r="H103" s="17"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:8">
       <c r="H104" s="17"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:8">
       <c r="H105" s="17"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:8">
       <c r="H106" s="17"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:8">
       <c r="H107" s="17"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:8">
       <c r="H108" s="17"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:8">
       <c r="H109" s="17"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:8">
       <c r="H110" s="17"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:8">
       <c r="H111" s="17"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="8:8">
       <c r="H112" s="17"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="8:8">
       <c r="H113" s="17"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="8:8">
       <c r="H114" s="17"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="8:8">
       <c r="H115" s="17"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="8:8">
       <c r="H116" s="17"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="8:8">
       <c r="H117" s="17"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="8:8">
       <c r="H118" s="17"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="8:8">
       <c r="H119" s="17"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="8:8">
       <c r="H120" s="17"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="8:8">
       <c r="H121" s="17"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="8:8">
       <c r="H122" s="17"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="8:8">
       <c r="H123" s="17"/>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="8:8">
       <c r="H124" s="17"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="8:8">
       <c r="H125" s="17"/>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="8:8">
       <c r="H126" s="17"/>
     </row>
   </sheetData>
@@ -6125,33 +6119,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
     <col min="6" max="6" width="5" style="48" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="48" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="48"/>
+    <col min="7" max="7" width="10.28515625" style="48" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -6164,7 +6158,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="53"/>
       <c r="C3" s="54" t="s">
         <v>11</v>
@@ -6179,7 +6173,7 @@
       <c r="K3" s="55"/>
       <c r="L3" s="56"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -6192,7 +6186,7 @@
       <c r="K4" s="57"/>
       <c r="L4" s="56"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
         <v>13</v>
@@ -6221,7 +6215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -6234,7 +6228,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="53"/>
       <c r="C7" s="135" t="s">
         <v>88</v>
@@ -6261,7 +6255,7 @@
       </c>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="53"/>
       <c r="C8" s="136" t="s">
         <v>77</v>
@@ -6269,7 +6263,7 @@
       <c r="E8" s="127"/>
       <c r="F8" s="127"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="53"/>
       <c r="C9" s="137" t="s">
         <v>40</v>
@@ -6277,13 +6271,13 @@
       <c r="E9" s="127"/>
       <c r="F9" s="127"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="53"/>
       <c r="C10" s="111"/>
       <c r="E10" s="127"/>
       <c r="F10" s="127"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="B11" s="53"/>
       <c r="C11" s="61" t="s">
         <v>69</v>
@@ -6308,7 +6302,7 @@
       </c>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="B12" s="53"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -6321,7 +6315,7 @@
       <c r="K12" s="63"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="B13" s="53"/>
       <c r="C13" s="61" t="s">
         <v>39</v>
@@ -6342,12 +6336,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="B14" s="53"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12">
       <c r="C15" s="48" t="s">
         <v>110</v>
       </c>
@@ -6362,27 +6356,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y151"/>
   <sheetViews>
     <sheetView topLeftCell="A135" workbookViewId="0">
       <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="106" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="106" customWidth="1"/>
     <col min="2" max="2" width="5" style="106" customWidth="1"/>
     <col min="3" max="5" width="7" style="106"/>
-    <col min="6" max="6" width="10.83203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="106" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="106"/>
-    <col min="8" max="8" width="9.5" style="106" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="106" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" ht="17" thickBot="1"/>
+    <row r="2" spans="2:25" s="25" customFormat="1">
       <c r="B2" s="109"/>
       <c r="C2" s="110" t="s">
         <v>25</v>
@@ -6410,7 +6404,7 @@
       <c r="T2" s="110"/>
       <c r="U2" s="110"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25">
       <c r="B3" s="107"/>
       <c r="C3" s="108"/>
       <c r="D3" s="108"/>
@@ -6432,7 +6426,7 @@
       <c r="T3" s="108"/>
       <c r="U3" s="108"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="107"/>
       <c r="C4" s="120" t="s">
         <v>58</v>
@@ -6460,7 +6454,7 @@
       <c r="X4" s="120"/>
       <c r="Y4" s="120"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" customFormat="1">
       <c r="B5" s="107"/>
       <c r="C5" s="120"/>
       <c r="D5" s="120"/>
@@ -6486,7 +6480,7 @@
       <c r="X5" s="120"/>
       <c r="Y5" s="120"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" customFormat="1">
       <c r="B6" s="107"/>
       <c r="C6" s="120"/>
       <c r="D6" s="120"/>
@@ -6512,7 +6506,7 @@
       <c r="X6" s="120"/>
       <c r="Y6" s="120"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" customFormat="1">
       <c r="B7" s="107"/>
       <c r="C7" s="120"/>
       <c r="D7" s="120"/>
@@ -6538,7 +6532,7 @@
       <c r="X7" s="120"/>
       <c r="Y7" s="120"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" customFormat="1">
       <c r="B8" s="107"/>
       <c r="C8" s="120"/>
       <c r="D8" s="120">
@@ -6572,7 +6566,7 @@
       <c r="X8" s="120"/>
       <c r="Y8" s="120"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" customFormat="1">
       <c r="B9" s="107"/>
       <c r="C9" s="120"/>
       <c r="D9" s="120"/>
@@ -6603,7 +6597,7 @@
       <c r="X9" s="120"/>
       <c r="Y9" s="120"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" customFormat="1">
       <c r="B10" s="107"/>
       <c r="C10" s="120"/>
       <c r="D10" s="120"/>
@@ -6632,7 +6626,7 @@
       <c r="X10" s="120"/>
       <c r="Y10" s="120"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" customFormat="1">
       <c r="B11" s="107"/>
       <c r="C11" s="120"/>
       <c r="D11" s="120"/>
@@ -6661,7 +6655,7 @@
       <c r="X11" s="120"/>
       <c r="Y11" s="120"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" customFormat="1">
       <c r="B12" s="107"/>
       <c r="C12" s="120"/>
       <c r="D12" s="120"/>
@@ -6693,7 +6687,7 @@
       <c r="X12" s="120"/>
       <c r="Y12" s="120"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" customFormat="1">
       <c r="B13" s="107"/>
       <c r="C13" s="120"/>
       <c r="D13" s="120"/>
@@ -6719,7 +6713,7 @@
       <c r="X13" s="120"/>
       <c r="Y13" s="120"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" customFormat="1">
       <c r="B14" s="107"/>
       <c r="C14" s="120"/>
       <c r="D14" s="120"/>
@@ -6745,7 +6739,7 @@
       <c r="X14" s="120"/>
       <c r="Y14" s="120"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" customFormat="1">
       <c r="B15" s="107"/>
       <c r="C15" s="120"/>
       <c r="D15" s="120"/>
@@ -6771,7 +6765,7 @@
       <c r="X15" s="120"/>
       <c r="Y15" s="120"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" customFormat="1">
       <c r="B16" s="107"/>
       <c r="C16" s="120"/>
       <c r="D16" s="120"/>
@@ -6797,7 +6791,7 @@
       <c r="X16" s="120"/>
       <c r="Y16" s="120"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" customFormat="1">
       <c r="B17" s="107"/>
       <c r="C17" s="120"/>
       <c r="D17" s="120"/>
@@ -6823,7 +6817,7 @@
       <c r="X17" s="120"/>
       <c r="Y17" s="120"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" customFormat="1">
       <c r="B18" s="107"/>
       <c r="C18" s="120"/>
       <c r="D18" s="120"/>
@@ -6849,7 +6843,7 @@
       <c r="X18" s="120"/>
       <c r="Y18" s="120"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" customFormat="1">
       <c r="B19" s="107"/>
       <c r="C19" s="120"/>
       <c r="D19" s="120"/>
@@ -6875,7 +6869,7 @@
       <c r="X19" s="120"/>
       <c r="Y19" s="120"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" customFormat="1">
       <c r="B20" s="107"/>
       <c r="C20" s="120"/>
       <c r="D20" s="120"/>
@@ -6901,7 +6895,7 @@
       <c r="X20" s="120"/>
       <c r="Y20" s="120"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" customFormat="1">
       <c r="B21" s="107"/>
       <c r="C21" s="120"/>
       <c r="D21" s="120"/>
@@ -6927,7 +6921,7 @@
       <c r="X21" s="120"/>
       <c r="Y21" s="120"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" customFormat="1">
       <c r="B22" s="107"/>
       <c r="C22" s="120"/>
       <c r="D22" s="120"/>
@@ -6953,7 +6947,7 @@
       <c r="X22" s="120"/>
       <c r="Y22" s="120"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" customFormat="1">
       <c r="B23" s="107"/>
       <c r="C23" s="120"/>
       <c r="D23" s="120"/>
@@ -6979,7 +6973,7 @@
       <c r="X23" s="120"/>
       <c r="Y23" s="120"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" customFormat="1">
       <c r="B24" s="107"/>
       <c r="C24" s="120"/>
       <c r="D24" s="120"/>
@@ -7005,7 +6999,7 @@
       <c r="X24" s="120"/>
       <c r="Y24" s="120"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" customFormat="1">
       <c r="B25" s="107"/>
       <c r="C25" s="120"/>
       <c r="D25" s="120"/>
@@ -7031,7 +7025,7 @@
       <c r="X25" s="120"/>
       <c r="Y25" s="120"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" customFormat="1">
       <c r="B26" s="107"/>
       <c r="C26" s="120"/>
       <c r="D26" s="120"/>
@@ -7057,7 +7051,7 @@
       <c r="X26" s="120"/>
       <c r="Y26" s="120"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" customFormat="1">
       <c r="B27" s="107"/>
       <c r="C27" s="120"/>
       <c r="D27" s="120"/>
@@ -7083,7 +7077,7 @@
       <c r="X27" s="120"/>
       <c r="Y27" s="120"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" customFormat="1">
       <c r="B28" s="107"/>
       <c r="C28" s="120"/>
       <c r="D28" s="120"/>
@@ -7109,106 +7103,106 @@
       <c r="X28" s="120"/>
       <c r="Y28" s="120"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" customFormat="1">
       <c r="B29" s="107"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" customFormat="1">
       <c r="B30" s="107"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" customFormat="1">
       <c r="B31" s="107"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" customFormat="1">
       <c r="B32" s="107"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" customFormat="1">
       <c r="B33" s="107"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" customFormat="1">
       <c r="B34" s="107"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" customFormat="1">
       <c r="B35" s="107"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" customFormat="1">
       <c r="B36" s="107"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" customFormat="1">
       <c r="B37" s="107"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" customFormat="1">
       <c r="B38" s="107"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" customFormat="1">
       <c r="B39" s="107"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" customFormat="1">
       <c r="B40" s="107"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" customFormat="1">
       <c r="B41" s="107"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" customFormat="1">
       <c r="B42" s="107"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" customFormat="1">
       <c r="B43" s="107"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" customFormat="1">
       <c r="B44" s="107"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" customFormat="1">
       <c r="B45" s="107"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" customFormat="1">
       <c r="B46" s="107"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" customFormat="1">
       <c r="B47" s="107"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" customFormat="1">
       <c r="B48" s="107"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" customFormat="1">
       <c r="B49" s="107"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" customFormat="1">
       <c r="B50" s="107"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" customFormat="1">
       <c r="B51" s="107"/>
     </row>
-    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" customFormat="1">
       <c r="B52" s="107"/>
     </row>
-    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" customFormat="1">
       <c r="B53" s="107"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" customFormat="1">
       <c r="B54" s="107"/>
     </row>
-    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" customFormat="1">
       <c r="B55" s="107"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" customFormat="1">
       <c r="B56" s="107"/>
     </row>
-    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" customFormat="1">
       <c r="B57" s="107"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" customFormat="1">
       <c r="B58" s="107"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" customFormat="1">
       <c r="B59" s="107"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" customFormat="1">
       <c r="B60" s="107"/>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1">
       <c r="B61" s="107"/>
     </row>
-    <row r="62" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" s="25" customFormat="1">
       <c r="A62"/>
       <c r="B62" s="109"/>
       <c r="C62" s="110" t="s">
@@ -7237,7 +7231,7 @@
       <c r="T62" s="110"/>
       <c r="U62" s="110"/>
     </row>
-    <row r="63" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" customFormat="1">
       <c r="B63" s="107"/>
       <c r="C63" s="123"/>
       <c r="D63" s="120"/>
@@ -7263,7 +7257,7 @@
       <c r="X63" s="120"/>
       <c r="Y63" s="120"/>
     </row>
-    <row r="64" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" customFormat="1" ht="21">
       <c r="B64" s="107"/>
       <c r="C64" s="128" t="s">
         <v>68</v>
@@ -7291,7 +7285,7 @@
       <c r="X64" s="120"/>
       <c r="Y64" s="120"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" customFormat="1">
       <c r="B65" s="107"/>
       <c r="C65" s="120"/>
       <c r="D65" s="120"/>
@@ -7317,7 +7311,7 @@
       <c r="X65" s="120"/>
       <c r="Y65" s="120"/>
     </row>
-    <row r="66" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" customFormat="1">
       <c r="B66" s="107"/>
       <c r="C66" s="120"/>
       <c r="D66" s="120"/>
@@ -7343,17 +7337,17 @@
       <c r="X66" s="120"/>
       <c r="Y66" s="120"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25">
       <c r="D68" s="106">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25">
       <c r="E72" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25">
       <c r="E73" s="134" t="s">
         <v>78</v>
       </c>
@@ -7361,7 +7355,7 @@
       <c r="G73" s="112"/>
       <c r="H73" s="112"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25">
       <c r="E74" s="119" t="s">
         <v>43</v>
       </c>
@@ -7378,7 +7372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25">
       <c r="E75" s="119" t="s">
         <v>44</v>
       </c>
@@ -7393,7 +7387,7 @@
       <c r="J75" s="120"/>
       <c r="K75" s="120"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25">
       <c r="E76" s="119" t="s">
         <v>48</v>
       </c>
@@ -7408,7 +7402,7 @@
       <c r="J76" s="120"/>
       <c r="K76" s="120"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25">
       <c r="D77" s="120"/>
       <c r="E77" s="119" t="s">
         <v>47</v>
@@ -7424,7 +7418,7 @@
       <c r="J77" s="120"/>
       <c r="K77" s="120"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25">
       <c r="D78" s="120"/>
       <c r="E78" s="119" t="s">
         <v>40</v>
@@ -7440,7 +7434,7 @@
       <c r="J78" s="120"/>
       <c r="K78" s="120"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25">
       <c r="D79" s="120"/>
       <c r="E79" s="119" t="s">
         <v>46</v>
@@ -7458,7 +7452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25">
       <c r="D80" s="120"/>
       <c r="E80" s="141" t="s">
         <v>45</v>
@@ -7473,7 +7467,7 @@
       </c>
       <c r="J80" s="120"/>
     </row>
-    <row r="81" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:11">
       <c r="D81" s="120"/>
       <c r="E81" s="141"/>
       <c r="F81" s="37"/>
@@ -7482,7 +7476,7 @@
       <c r="I81" s="120"/>
       <c r="J81" s="120"/>
     </row>
-    <row r="82" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:11">
       <c r="D82" s="120"/>
       <c r="E82" s="134" t="s">
         <v>79</v>
@@ -7495,7 +7489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:11">
       <c r="E83" s="119" t="s">
         <v>43</v>
       </c>
@@ -7510,7 +7504,7 @@
       <c r="J83" s="120"/>
       <c r="K83" s="120"/>
     </row>
-    <row r="84" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:11">
       <c r="E84" s="119" t="s">
         <v>44</v>
       </c>
@@ -7525,7 +7519,7 @@
       <c r="J84" s="120"/>
       <c r="K84" s="120"/>
     </row>
-    <row r="85" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:11">
       <c r="E85" s="119" t="s">
         <v>48</v>
       </c>
@@ -7540,7 +7534,7 @@
       <c r="J85" s="120"/>
       <c r="K85" s="120"/>
     </row>
-    <row r="86" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:11">
       <c r="E86" s="119" t="s">
         <v>47</v>
       </c>
@@ -7555,7 +7549,7 @@
       <c r="J86" s="120"/>
       <c r="K86" s="120"/>
     </row>
-    <row r="87" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:11">
       <c r="E87" s="119" t="s">
         <v>40</v>
       </c>
@@ -7572,7 +7566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:11">
       <c r="E88" s="119" t="s">
         <v>46</v>
       </c>
@@ -7585,7 +7579,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:11">
       <c r="E89" s="141" t="s">
         <v>45</v>
       </c>
@@ -7598,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:11">
       <c r="E90" s="141"/>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7607,7 +7601,7 @@
       <c r="J90" s="129"/>
       <c r="K90" s="129"/>
     </row>
-    <row r="91" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:11">
       <c r="E91" s="134" t="s">
         <v>80</v>
       </c>
@@ -7617,7 +7611,7 @@
       <c r="J91" s="120"/>
       <c r="K91" s="120"/>
     </row>
-    <row r="92" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:11">
       <c r="E92" s="119" t="s">
         <v>43</v>
       </c>
@@ -7632,7 +7626,7 @@
       <c r="J92" s="120"/>
       <c r="K92" s="120"/>
     </row>
-    <row r="93" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:11">
       <c r="E93" s="119" t="s">
         <v>44</v>
       </c>
@@ -7647,7 +7641,7 @@
       <c r="J93" s="120"/>
       <c r="K93" s="120"/>
     </row>
-    <row r="94" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:11">
       <c r="E94" s="119" t="s">
         <v>48</v>
       </c>
@@ -7662,7 +7656,7 @@
       <c r="J94" s="120"/>
       <c r="K94" s="120"/>
     </row>
-    <row r="95" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:11">
       <c r="E95" s="119" t="s">
         <v>47</v>
       </c>
@@ -7677,7 +7671,7 @@
       <c r="J95" s="120"/>
       <c r="K95" s="120"/>
     </row>
-    <row r="96" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:11">
       <c r="E96" s="119" t="s">
         <v>40</v>
       </c>
@@ -7692,7 +7686,7 @@
       <c r="J96" s="120"/>
       <c r="K96" s="120"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:11">
       <c r="E97" s="119" t="s">
         <v>46</v>
       </c>
@@ -7707,7 +7701,7 @@
       <c r="J97" s="120"/>
       <c r="K97" s="129"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:11">
       <c r="E98" s="141" t="s">
         <v>45</v>
       </c>
@@ -7722,7 +7716,7 @@
       <c r="J98" s="120"/>
       <c r="K98" s="129"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:11">
       <c r="E99" s="141"/>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -7731,7 +7725,7 @@
       <c r="J99" s="120"/>
       <c r="K99" s="120"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:11">
       <c r="E100" s="134" t="s">
         <v>81</v>
       </c>
@@ -7741,7 +7735,7 @@
       <c r="J100" s="120"/>
       <c r="K100" s="120"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:11">
       <c r="E101" s="119" t="s">
         <v>43</v>
       </c>
@@ -7756,7 +7750,7 @@
       <c r="J101" s="120"/>
       <c r="K101" s="120"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:11">
       <c r="E102" s="119" t="s">
         <v>44</v>
       </c>
@@ -7771,7 +7765,7 @@
       <c r="J102" s="120"/>
       <c r="K102" s="120"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:11">
       <c r="E103" s="119" t="s">
         <v>48</v>
       </c>
@@ -7786,7 +7780,7 @@
       <c r="J103" s="120"/>
       <c r="K103" s="120"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:11">
       <c r="E104" s="119" t="s">
         <v>47</v>
       </c>
@@ -7801,7 +7795,7 @@
       <c r="J104" s="120"/>
       <c r="K104" s="120"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:11">
       <c r="E105" s="119" t="s">
         <v>40</v>
       </c>
@@ -7814,7 +7808,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:11">
       <c r="E106" s="119" t="s">
         <v>46</v>
       </c>
@@ -7827,7 +7821,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:11">
       <c r="E107" s="141" t="s">
         <v>45</v>
       </c>
@@ -7840,13 +7834,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:11">
       <c r="E108" s="141"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
       <c r="H108" s="23"/>
     </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:11">
       <c r="E109" s="134" t="s">
         <v>82</v>
       </c>
@@ -7854,7 +7848,7 @@
       <c r="G109" s="37"/>
       <c r="H109" s="112"/>
     </row>
-    <row r="110" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:11">
       <c r="E110" s="119" t="s">
         <v>43</v>
       </c>
@@ -7867,7 +7861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:11">
       <c r="E111" s="119" t="s">
         <v>44</v>
       </c>
@@ -7880,7 +7874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:11">
       <c r="E112" s="119" t="s">
         <v>48</v>
       </c>
@@ -7893,7 +7887,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:9">
       <c r="E113" s="119" t="s">
         <v>47</v>
       </c>
@@ -7906,7 +7900,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:9">
       <c r="E114" s="119" t="s">
         <v>40</v>
       </c>
@@ -7919,7 +7913,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:9">
       <c r="E115" s="119" t="s">
         <v>46</v>
       </c>
@@ -7932,7 +7926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:9">
       <c r="E116" s="141" t="s">
         <v>45</v>
       </c>
@@ -7945,13 +7939,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:9">
       <c r="E117" s="141"/>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
       <c r="H117" s="23"/>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:9">
       <c r="E118" s="134" t="s">
         <v>83</v>
       </c>
@@ -7959,7 +7953,7 @@
       <c r="G118" s="37"/>
       <c r="H118" s="112"/>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:9">
       <c r="E119" s="119" t="s">
         <v>43</v>
       </c>
@@ -7972,7 +7966,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:9">
       <c r="E120" s="119" t="s">
         <v>44</v>
       </c>
@@ -7985,7 +7979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:9">
       <c r="E121" s="119" t="s">
         <v>48</v>
       </c>
@@ -7998,7 +7992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:9" customFormat="1">
       <c r="E122" s="119" t="s">
         <v>47</v>
       </c>
@@ -8011,7 +8005,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:9" customFormat="1">
       <c r="E123" s="119" t="s">
         <v>40</v>
       </c>
@@ -8024,7 +8018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:9" customFormat="1">
       <c r="E124" s="119" t="s">
         <v>46</v>
       </c>
@@ -8037,7 +8031,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:9" customFormat="1">
       <c r="E125" s="141" t="s">
         <v>45</v>
       </c>
@@ -8050,13 +8044,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="5:9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:9" customFormat="1">
       <c r="E126" s="141"/>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="23"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:9">
       <c r="E127" s="134" t="s">
         <v>84</v>
       </c>
@@ -8064,7 +8058,7 @@
       <c r="G127" s="37"/>
       <c r="H127" s="112"/>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:9">
       <c r="E128" s="119" t="s">
         <v>43</v>
       </c>
@@ -8077,7 +8071,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25">
       <c r="E129" s="119" t="s">
         <v>44</v>
       </c>
@@ -8090,7 +8084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25">
       <c r="E130" s="119" t="s">
         <v>48</v>
       </c>
@@ -8103,7 +8097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25">
       <c r="E131" s="119" t="s">
         <v>47</v>
       </c>
@@ -8116,7 +8110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25">
       <c r="E132" s="119" t="s">
         <v>40</v>
       </c>
@@ -8129,7 +8123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25">
       <c r="E133" s="119" t="s">
         <v>46</v>
       </c>
@@ -8142,7 +8136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25">
       <c r="E134" s="141" t="s">
         <v>45</v>
       </c>
@@ -8155,8 +8149,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="17" thickBot="1"/>
+    <row r="137" spans="1:25" s="25" customFormat="1">
       <c r="A137"/>
       <c r="B137" s="109"/>
       <c r="C137" s="110" t="s">
@@ -8185,7 +8179,7 @@
       <c r="T137" s="110"/>
       <c r="U137" s="110"/>
     </row>
-    <row r="138" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" customFormat="1">
       <c r="B138" s="107"/>
       <c r="C138" s="123"/>
       <c r="D138" s="120"/>
@@ -8211,7 +8205,7 @@
       <c r="X138" s="120"/>
       <c r="Y138" s="120"/>
     </row>
-    <row r="139" spans="1:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" customFormat="1" ht="21">
       <c r="B139" s="107"/>
       <c r="C139" s="128" t="s">
         <v>105</v>
@@ -8239,7 +8233,7 @@
       <c r="X139" s="120"/>
       <c r="Y139" s="120"/>
     </row>
-    <row r="140" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" customFormat="1">
       <c r="B140" s="107"/>
       <c r="C140" s="120"/>
       <c r="D140" s="120"/>
@@ -8265,28 +8259,28 @@
       <c r="X140" s="120"/>
       <c r="Y140" s="120"/>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F141" s="177" t="s">
+    <row r="141" spans="1:25">
+      <c r="F141" s="160" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F142" s="178">
+    <row r="142" spans="1:25">
+      <c r="F142" s="161">
         <v>43061</v>
       </c>
     </row>
-    <row r="147" spans="6:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:9" ht="18">
       <c r="F147" s="154">
         <v>83.5</v>
       </c>
       <c r="G147" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="I147" s="177" t="s">
+      <c r="I147" s="160" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="6:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:9" ht="18">
       <c r="F148" s="154">
         <f>dollar_per_euro</f>
         <v>1.1718999999999999</v>
@@ -8294,11 +8288,11 @@
       <c r="G148" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="I148" s="177" t="s">
+      <c r="I148" s="160" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="149" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:9">
       <c r="F149" s="155">
         <f>F147/F148</f>
         <v>71.251813294649722</v>
@@ -8307,7 +8301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="150" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:9">
       <c r="F150" s="106">
         <f>F9*1000</f>
         <v>26500</v>
@@ -8316,7 +8310,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="151" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:9">
       <c r="F151" s="156">
         <f>F149/F150</f>
         <v>2.6887476714962158E-3</v>
@@ -8333,32 +8327,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" s="37" customFormat="1">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:9" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" s="37" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="162" t="s">
         <v>98</v>
       </c>
@@ -8368,7 +8362,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" s="37" customFormat="1">
       <c r="B3" s="165"/>
       <c r="C3" s="166"/>
       <c r="D3" s="166"/>
@@ -8376,7 +8370,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" s="37" customFormat="1">
       <c r="B4" s="174"/>
       <c r="C4" s="175"/>
       <c r="D4" s="175"/>
@@ -8384,10 +8378,10 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:9" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="37" customFormat="1" ht="17" thickBot="1">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" s="37" customFormat="1">
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -8397,7 +8391,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="39"/>
     </row>
-    <row r="7" spans="2:9" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="44" customFormat="1" ht="19">
       <c r="B7" s="93"/>
       <c r="C7" s="20" t="s">
         <v>97</v>
@@ -8419,11 +8413,11 @@
       </c>
       <c r="I7" s="97"/>
     </row>
-    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="20" thickBot="1">
       <c r="B8" s="24"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="24"/>
       <c r="C9" s="103" t="s">
         <v>99</v>
@@ -8437,7 +8431,7 @@
       <c r="F9" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="161">
+      <c r="G9" s="159">
         <v>43068</v>
       </c>
       <c r="H9" s="113" t="s">
